--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_18_34.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_18_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2256204.668263212</v>
+        <v>2254471.18714957</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6049179.212228707</v>
+        <v>6049179.212228704</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9381704.729779514</v>
+        <v>9381704.729779515</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>64.55610125115464</v>
       </c>
       <c r="C11" t="n">
         <v>285.8416805439006</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>275.251830393576</v>
       </c>
       <c r="E11" t="n">
         <v>302.4991588451549</v>
       </c>
       <c r="F11" t="n">
-        <v>327.4448345146045</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>333.0902356170842</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>112.4120569753819</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>23.81896975173341</v>
+        <v>23.81896975173343</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>66.21019719500379</v>
       </c>
       <c r="T11" t="n">
         <v>131.4895384249674</v>
       </c>
       <c r="U11" t="n">
-        <v>171.691938427054</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>248.321047243028</v>
       </c>
       <c r="W11" t="n">
         <v>269.8097574903061</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>290.2998894513621</v>
       </c>
       <c r="Y11" t="n">
         <v>306.8067274289467</v>
@@ -1446,10 +1446,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>99.41374673918803</v>
+        <v>87.10197242276041</v>
       </c>
       <c r="C12" t="n">
-        <v>93.2772877612088</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>56.42418423419252</v>
+        <v>56.42418423419253</v>
       </c>
       <c r="H12" t="n">
-        <v>97.863321483828</v>
+        <v>97.86332148382802</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>38.16086372859612</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,19 +1494,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>7.763751642754542</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>144.0419631757947</v>
+        <v>144.0419631757948</v>
       </c>
       <c r="T12" t="n">
-        <v>194.1665539401884</v>
+        <v>114.7353427130815</v>
       </c>
       <c r="U12" t="n">
         <v>225.843479337428</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>214.7152493800113</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -1528,25 +1528,25 @@
         <v>100.4007689548304</v>
       </c>
       <c r="C13" t="n">
-        <v>87.81560987152089</v>
+        <v>87.81560987152091</v>
       </c>
       <c r="D13" t="n">
-        <v>69.18426179110541</v>
+        <v>69.18426179110543</v>
       </c>
       <c r="E13" t="n">
-        <v>67.00275141946223</v>
+        <v>67.00275141946224</v>
       </c>
       <c r="F13" t="n">
-        <v>65.9898367958243</v>
+        <v>65.98983679582432</v>
       </c>
       <c r="G13" t="n">
-        <v>87.31217688571734</v>
+        <v>87.31217688571735</v>
       </c>
       <c r="H13" t="n">
-        <v>71.70374093278247</v>
+        <v>71.70374093278248</v>
       </c>
       <c r="I13" t="n">
-        <v>38.50079242234362</v>
+        <v>38.50079242234364</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.76594105089783</v>
+        <v>41.76594105089785</v>
       </c>
       <c r="S13" t="n">
         <v>122.8432739200354</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>121.5968645290708</v>
+        <v>303.3026304363736</v>
       </c>
       <c r="C14" t="n">
         <v>285.8416805439006</v>
@@ -1613,19 +1613,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>302.4991588451549</v>
+        <v>302.4991588451548</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>327.4448345146045</v>
       </c>
       <c r="G14" t="n">
-        <v>333.0902356170842</v>
+        <v>333.0902356170841</v>
       </c>
       <c r="H14" t="n">
-        <v>231.5596978048558</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>23.81896975173338</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>66.21019719500376</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>131.4895384249674</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>171.691938427054</v>
+        <v>115.6197411817077</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1670,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>290.2998894513621</v>
+        <v>290.299889451362</v>
       </c>
       <c r="Y14" t="n">
         <v>306.8067274289466</v>
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>87.10197242276035</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -1698,13 +1698,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>76.49971019337474</v>
+        <v>135.8553954612995</v>
       </c>
       <c r="H15" t="n">
-        <v>18.43211025672105</v>
+        <v>79.77798371441418</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>38.16086372859612</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,10 +1734,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>64.61075194868779</v>
+        <v>144.0419631757948</v>
       </c>
       <c r="T15" t="n">
-        <v>194.1665539401884</v>
+        <v>114.7353427130814</v>
       </c>
       <c r="U15" t="n">
         <v>225.843479337428</v>
@@ -1746,7 +1746,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>172.2637719338126</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -1765,25 +1765,25 @@
         <v>100.4007689548303</v>
       </c>
       <c r="C16" t="n">
-        <v>87.81560987152088</v>
+        <v>87.81560987152085</v>
       </c>
       <c r="D16" t="n">
-        <v>69.1842617911054</v>
+        <v>69.18426179110537</v>
       </c>
       <c r="E16" t="n">
-        <v>67.00275141946221</v>
+        <v>67.00275141946219</v>
       </c>
       <c r="F16" t="n">
-        <v>65.98983679582429</v>
+        <v>65.98983679582426</v>
       </c>
       <c r="G16" t="n">
-        <v>87.31217688571732</v>
+        <v>87.31217688571729</v>
       </c>
       <c r="H16" t="n">
-        <v>71.70374093278245</v>
+        <v>71.70374093278241</v>
       </c>
       <c r="I16" t="n">
-        <v>38.50079242234361</v>
+        <v>38.50079242234358</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.76594105089782</v>
+        <v>41.76594105089779</v>
       </c>
       <c r="S16" t="n">
         <v>122.8432739200354</v>
@@ -1844,19 +1844,19 @@
         <v>223.8714192092667</v>
       </c>
       <c r="C17" t="n">
-        <v>206.4104693167937</v>
+        <v>206.4104693167936</v>
       </c>
       <c r="D17" t="n">
-        <v>195.8206191664691</v>
+        <v>195.820619166469</v>
       </c>
       <c r="E17" t="n">
         <v>223.0679476180479</v>
       </c>
       <c r="F17" t="n">
-        <v>248.0136232874976</v>
+        <v>248.0136232874975</v>
       </c>
       <c r="G17" t="n">
-        <v>253.6590243899773</v>
+        <v>73.76070174028739</v>
       </c>
       <c r="H17" t="n">
         <v>152.1284865777488</v>
@@ -1895,16 +1895,16 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>52.05832719786046</v>
+        <v>52.05832719786043</v>
       </c>
       <c r="U17" t="n">
-        <v>92.2607271999471</v>
+        <v>92.26072719994707</v>
       </c>
       <c r="V17" t="n">
         <v>168.889836015921</v>
       </c>
       <c r="W17" t="n">
-        <v>10.48022361350978</v>
+        <v>190.3785462631991</v>
       </c>
       <c r="X17" t="n">
         <v>210.8686782242551</v>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>38.16086372859611</v>
+        <v>38.16086372859612</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,16 +1968,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>7.763751642754542</v>
+        <v>7.763751642754556</v>
       </c>
       <c r="S18" t="n">
-        <v>113.6179570274331</v>
+        <v>144.0419631757948</v>
       </c>
       <c r="T18" t="n">
         <v>194.1665539401884</v>
       </c>
       <c r="U18" t="n">
-        <v>225.843479337428</v>
+        <v>195.4194731890662</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>20.96955772772341</v>
+        <v>20.96955772772338</v>
       </c>
       <c r="C19" t="n">
-        <v>8.384398644413949</v>
+        <v>8.38439864441392</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>7.880965658610398</v>
+        <v>7.88096565861037</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>5.154479050315302</v>
+        <v>5.154479050315317</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>92.37741689117054</v>
+        <v>202.2744851471423</v>
       </c>
       <c r="T19" t="n">
         <v>222.6149722878433</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2509789249108</v>
+        <v>127.3885564706969</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>93.27522086961409</v>
       </c>
       <c r="W19" t="n">
-        <v>127.6605758823771</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>66.84723293482327</v>
+        <v>66.84723293482324</v>
       </c>
       <c r="Y19" t="n">
-        <v>59.72223089788091</v>
+        <v>108.687585096123</v>
       </c>
     </row>
     <row r="20">
@@ -2081,19 +2081,19 @@
         <v>223.8714192092667</v>
       </c>
       <c r="C20" t="n">
-        <v>206.4104693167937</v>
+        <v>206.4104693167936</v>
       </c>
       <c r="D20" t="n">
-        <v>15.92229651677951</v>
+        <v>195.820619166469</v>
       </c>
       <c r="E20" t="n">
         <v>223.0679476180479</v>
       </c>
       <c r="F20" t="n">
-        <v>248.0136232874976</v>
+        <v>248.0136232874975</v>
       </c>
       <c r="G20" t="n">
-        <v>253.6590243899773</v>
+        <v>253.6590243899772</v>
       </c>
       <c r="H20" t="n">
         <v>152.1284865777488</v>
@@ -2132,16 +2132,16 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>52.05832719786046</v>
+        <v>52.05832719786043</v>
       </c>
       <c r="U20" t="n">
-        <v>92.2607271999471</v>
+        <v>92.26072719994707</v>
       </c>
       <c r="V20" t="n">
         <v>168.889836015921</v>
       </c>
       <c r="W20" t="n">
-        <v>190.3785462631991</v>
+        <v>10.48022361350971</v>
       </c>
       <c r="X20" t="n">
         <v>210.8686782242551</v>
@@ -2163,10 +2163,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>19.32652768357347</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -2178,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>29.52654257433566</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>7.763751642754542</v>
+        <v>7.763751642754556</v>
       </c>
       <c r="S21" t="n">
-        <v>144.0419631757947</v>
+        <v>144.0419631757948</v>
       </c>
       <c r="T21" t="n">
         <v>194.1665539401884</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>20.96955772772338</v>
       </c>
       <c r="C22" t="n">
-        <v>8.384398644413949</v>
+        <v>8.38439864441392</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>7.880965658610398</v>
+        <v>7.88096565861037</v>
       </c>
       <c r="H22" t="n">
-        <v>54.11983324855732</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>121.1971522780048</v>
       </c>
       <c r="S22" t="n">
-        <v>43.41206269292846</v>
+        <v>202.2744851471423</v>
       </c>
       <c r="T22" t="n">
-        <v>63.75254983362939</v>
+        <v>155.5376532583961</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2509789249108</v>
+        <v>127.3885564706969</v>
       </c>
       <c r="V22" t="n">
-        <v>93.27522086961412</v>
+        <v>93.27522086961409</v>
       </c>
       <c r="W22" t="n">
-        <v>127.6605758823771</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>66.84723293482327</v>
+        <v>66.84723293482324</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>59.72223089788088</v>
       </c>
     </row>
     <row r="23">
@@ -2318,19 +2318,19 @@
         <v>223.8714192092667</v>
       </c>
       <c r="C23" t="n">
-        <v>206.4104693167937</v>
+        <v>206.4104693167936</v>
       </c>
       <c r="D23" t="n">
-        <v>195.8206191664691</v>
+        <v>195.820619166469</v>
       </c>
       <c r="E23" t="n">
         <v>223.0679476180479</v>
       </c>
       <c r="F23" t="n">
-        <v>248.0136232874976</v>
+        <v>248.0136232874975</v>
       </c>
       <c r="G23" t="n">
-        <v>253.6590243899773</v>
+        <v>253.6590243899772</v>
       </c>
       <c r="H23" t="n">
         <v>152.1284865777488</v>
@@ -2369,10 +2369,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>52.05832719786046</v>
+        <v>52.05832719786043</v>
       </c>
       <c r="U23" t="n">
-        <v>92.2607271999471</v>
+        <v>92.26072719994707</v>
       </c>
       <c r="V23" t="n">
         <v>168.889836015921</v>
@@ -2409,13 +2409,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>59.37474666025434</v>
+        <v>135.8553954612995</v>
       </c>
       <c r="H24" t="n">
-        <v>97.863321483828</v>
+        <v>21.38267268278288</v>
       </c>
       <c r="I24" t="n">
-        <v>38.16086372859611</v>
+        <v>38.16086372859612</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>144.0419631757947</v>
+        <v>144.0419631757948</v>
       </c>
       <c r="T24" t="n">
         <v>194.1665539401884</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>20.96955772772341</v>
+        <v>20.96955772772338</v>
       </c>
       <c r="C25" t="n">
-        <v>8.384398644413949</v>
+        <v>8.38439864441392</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2488,16 +2488,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>7.880965658610398</v>
+        <v>7.88096565861037</v>
       </c>
       <c r="H25" t="n">
-        <v>61.39381400588696</v>
+        <v>76.79524249220385</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>5.154479050315302</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>202.2744851471423</v>
+        <v>43.41206269292843</v>
       </c>
       <c r="T25" t="n">
-        <v>222.6149722878433</v>
+        <v>63.75254983362937</v>
       </c>
       <c r="U25" t="n">
         <v>127.3885564706969</v>
       </c>
       <c r="V25" t="n">
-        <v>93.27522086961412</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>127.6605758823771</v>
       </c>
       <c r="X25" t="n">
-        <v>66.84723293482327</v>
+        <v>66.84723293482324</v>
       </c>
       <c r="Y25" t="n">
-        <v>59.72223089788091</v>
+        <v>59.72223089788088</v>
       </c>
     </row>
     <row r="26">
@@ -2561,16 +2561,16 @@
         <v>275.251830393576</v>
       </c>
       <c r="E26" t="n">
-        <v>302.4991588451549</v>
+        <v>302.4991588451548</v>
       </c>
       <c r="F26" t="n">
         <v>327.4448345146045</v>
       </c>
       <c r="G26" t="n">
-        <v>333.0902356170842</v>
+        <v>333.0902356170841</v>
       </c>
       <c r="H26" t="n">
-        <v>231.5596978048558</v>
+        <v>231.5596978048557</v>
       </c>
       <c r="I26" t="n">
         <v>23.81896975173339</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>66.21019719500376</v>
+        <v>66.21019719500374</v>
       </c>
       <c r="T26" t="n">
-        <v>131.4895384249674</v>
+        <v>131.4895384249673</v>
       </c>
       <c r="U26" t="n">
         <v>171.691938427054</v>
       </c>
       <c r="V26" t="n">
-        <v>248.321047243028</v>
+        <v>248.3210472430279</v>
       </c>
       <c r="W26" t="n">
-        <v>269.8097574903061</v>
+        <v>269.809757490306</v>
       </c>
       <c r="X26" t="n">
-        <v>290.2998894513621</v>
+        <v>290.299889451362</v>
       </c>
       <c r="Y26" t="n">
-        <v>306.8067274289467</v>
+        <v>306.8067274289466</v>
       </c>
     </row>
     <row r="27">
@@ -2649,10 +2649,10 @@
         <v>135.8553954612995</v>
       </c>
       <c r="H27" t="n">
-        <v>97.863321483828</v>
+        <v>97.86332148382802</v>
       </c>
       <c r="I27" t="n">
-        <v>38.16086372859611</v>
+        <v>38.16086372859612</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>7.763751642754542</v>
+        <v>7.763751642754556</v>
       </c>
       <c r="S27" t="n">
-        <v>144.0419631757947</v>
+        <v>144.0419631757948</v>
       </c>
       <c r="T27" t="n">
         <v>194.1665539401884</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>100.4007689548304</v>
+        <v>100.4007689548303</v>
       </c>
       <c r="C28" t="n">
-        <v>87.81560987152089</v>
+        <v>87.81560987152086</v>
       </c>
       <c r="D28" t="n">
-        <v>69.18426179110541</v>
+        <v>69.18426179110538</v>
       </c>
       <c r="E28" t="n">
-        <v>67.00275141946223</v>
+        <v>67.0027514194622</v>
       </c>
       <c r="F28" t="n">
-        <v>65.9898367958243</v>
+        <v>65.98983679582427</v>
       </c>
       <c r="G28" t="n">
-        <v>87.31217688571734</v>
+        <v>87.31217688571731</v>
       </c>
       <c r="H28" t="n">
-        <v>71.70374093278247</v>
+        <v>71.70374093278242</v>
       </c>
       <c r="I28" t="n">
-        <v>38.50079242234362</v>
+        <v>38.50079242234359</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.76594105089783</v>
+        <v>41.76594105089781</v>
       </c>
       <c r="S28" t="n">
         <v>122.8432739200354</v>
@@ -2770,16 +2770,16 @@
         <v>206.8197676978039</v>
       </c>
       <c r="V28" t="n">
-        <v>172.7064320967211</v>
+        <v>172.706432096721</v>
       </c>
       <c r="W28" t="n">
-        <v>207.0917871094841</v>
+        <v>207.091787109484</v>
       </c>
       <c r="X28" t="n">
         <v>146.2784441619302</v>
       </c>
       <c r="Y28" t="n">
-        <v>139.1534421249879</v>
+        <v>139.1534421249878</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>231.5596978048558</v>
       </c>
       <c r="I29" t="n">
-        <v>23.81896975173339</v>
+        <v>23.81896975173345</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>66.21019719500377</v>
+        <v>66.21019719500381</v>
       </c>
       <c r="T29" t="n">
         <v>131.4895384249674</v>
       </c>
       <c r="U29" t="n">
-        <v>171.691938427054</v>
+        <v>171.6919384270541</v>
       </c>
       <c r="V29" t="n">
         <v>248.321047243028</v>
@@ -2886,10 +2886,10 @@
         <v>135.8553954612995</v>
       </c>
       <c r="H30" t="n">
-        <v>97.863321483828</v>
+        <v>97.86332148382802</v>
       </c>
       <c r="I30" t="n">
-        <v>38.16086372859611</v>
+        <v>38.16086372859612</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,10 +2916,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>7.763751642754542</v>
+        <v>7.763751642754556</v>
       </c>
       <c r="S30" t="n">
-        <v>144.0419631757947</v>
+        <v>144.0419631757948</v>
       </c>
       <c r="T30" t="n">
         <v>194.1665539401884</v>
@@ -2950,25 +2950,25 @@
         <v>100.4007689548304</v>
       </c>
       <c r="C31" t="n">
-        <v>87.81560987152089</v>
+        <v>87.81560987152092</v>
       </c>
       <c r="D31" t="n">
-        <v>69.18426179110541</v>
+        <v>69.18426179110544</v>
       </c>
       <c r="E31" t="n">
-        <v>67.00275141946223</v>
+        <v>67.00275141946226</v>
       </c>
       <c r="F31" t="n">
-        <v>65.9898367958243</v>
+        <v>65.98983679582433</v>
       </c>
       <c r="G31" t="n">
-        <v>87.31217688571734</v>
+        <v>87.31217688571601</v>
       </c>
       <c r="H31" t="n">
-        <v>71.70374093278245</v>
+        <v>71.70374093278248</v>
       </c>
       <c r="I31" t="n">
-        <v>38.50079242234362</v>
+        <v>38.50079242234366</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.76594105089784</v>
+        <v>41.76594105089787</v>
       </c>
       <c r="S31" t="n">
         <v>122.8432739200354</v>
@@ -3047,7 +3047,7 @@
         <v>231.5596978048558</v>
       </c>
       <c r="I32" t="n">
-        <v>23.81896975173339</v>
+        <v>23.81896975173342</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3123,10 +3123,10 @@
         <v>135.8553954612995</v>
       </c>
       <c r="H33" t="n">
-        <v>97.863321483828</v>
+        <v>97.86332148382802</v>
       </c>
       <c r="I33" t="n">
-        <v>38.16086372859611</v>
+        <v>38.16086372859612</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,10 +3153,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>7.763751642754542</v>
+        <v>7.763751642754556</v>
       </c>
       <c r="S33" t="n">
-        <v>144.0419631757947</v>
+        <v>144.0419631757948</v>
       </c>
       <c r="T33" t="n">
         <v>194.1665539401884</v>
@@ -3205,7 +3205,7 @@
         <v>71.70374093278247</v>
       </c>
       <c r="I34" t="n">
-        <v>38.50079242234362</v>
+        <v>38.50079242234363</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.76594105089783</v>
+        <v>41.76594105089784</v>
       </c>
       <c r="S34" t="n">
         <v>122.8432739200354</v>
@@ -3360,10 +3360,10 @@
         <v>135.8553954612995</v>
       </c>
       <c r="H36" t="n">
-        <v>97.863321483828</v>
+        <v>97.86332148382802</v>
       </c>
       <c r="I36" t="n">
-        <v>38.16086372859611</v>
+        <v>38.16086372859612</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,10 +3390,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>7.763751642754542</v>
+        <v>7.763751642754556</v>
       </c>
       <c r="S36" t="n">
-        <v>144.0419631757947</v>
+        <v>144.0419631757948</v>
       </c>
       <c r="T36" t="n">
         <v>194.1665539401884</v>
@@ -3424,7 +3424,7 @@
         <v>34.19057175982658</v>
       </c>
       <c r="C37" t="n">
-        <v>119.5593935641246</v>
+        <v>21.60541267651712</v>
       </c>
       <c r="D37" t="n">
         <v>2.974064596101641</v>
@@ -3439,13 +3439,13 @@
         <v>21.10197969071357</v>
       </c>
       <c r="H37" t="n">
-        <v>5.49354373777869</v>
+        <v>5.493543737778694</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>5.154479050315317</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3475,19 +3475,19 @@
         <v>56.63307672503163</v>
       </c>
       <c r="T37" t="n">
-        <v>76.97356386573256</v>
+        <v>222.6149722878433</v>
       </c>
       <c r="U37" t="n">
-        <v>140.6095705028001</v>
+        <v>286.2509789249108</v>
       </c>
       <c r="V37" t="n">
-        <v>106.4962349017173</v>
+        <v>199.2957367390086</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>140.8815899144803</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>80.06824696692644</v>
       </c>
       <c r="Y37" t="n">
         <v>72.94324492998408</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>237.0924332413699</v>
+        <v>237.0924332413698</v>
       </c>
       <c r="C38" t="n">
         <v>219.6314833488968</v>
@@ -3509,7 +3509,7 @@
         <v>209.0416331985722</v>
       </c>
       <c r="E38" t="n">
-        <v>236.2889616501511</v>
+        <v>236.288961650151</v>
       </c>
       <c r="F38" t="n">
         <v>261.2346373196007</v>
@@ -3554,10 +3554,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>65.27934122996362</v>
+        <v>65.27934122996361</v>
       </c>
       <c r="U38" t="n">
-        <v>105.4817412320503</v>
+        <v>105.4817412320502</v>
       </c>
       <c r="V38" t="n">
         <v>182.1108500480242</v>
@@ -3569,7 +3569,7 @@
         <v>224.0896922563583</v>
       </c>
       <c r="Y38" t="n">
-        <v>240.5965302339429</v>
+        <v>240.5965302339428</v>
       </c>
     </row>
     <row r="39">
@@ -3597,10 +3597,10 @@
         <v>135.8553954612995</v>
       </c>
       <c r="H39" t="n">
-        <v>97.863321483828</v>
+        <v>97.86332148382802</v>
       </c>
       <c r="I39" t="n">
-        <v>38.16086372859611</v>
+        <v>38.16086372859612</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>7.763751642754542</v>
+        <v>7.763751642754556</v>
       </c>
       <c r="S39" t="n">
-        <v>144.0419631757947</v>
+        <v>144.0419631757948</v>
       </c>
       <c r="T39" t="n">
         <v>194.1665539401884</v>
@@ -3658,31 +3658,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>34.19057175982658</v>
+        <v>34.19057175982655</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>119.7797539633037</v>
       </c>
       <c r="D40" t="n">
-        <v>2.974064596101641</v>
+        <v>2.974064596101613</v>
       </c>
       <c r="E40" t="n">
-        <v>0.7925542244584562</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.7433881128243</v>
+        <v>21.10197969071354</v>
       </c>
       <c r="H40" t="n">
-        <v>98.29304557507081</v>
+        <v>5.493543737778666</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>5.154479050315302</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3709,10 +3709,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>56.63307672503163</v>
+        <v>56.6330767250316</v>
       </c>
       <c r="T40" t="n">
-        <v>76.97356386573256</v>
+        <v>76.97356386573253</v>
       </c>
       <c r="U40" t="n">
         <v>140.6095705028001</v>
@@ -3724,10 +3724,10 @@
         <v>140.8815899144803</v>
       </c>
       <c r="X40" t="n">
-        <v>80.06824696692644</v>
+        <v>80.06824696692641</v>
       </c>
       <c r="Y40" t="n">
-        <v>72.94324492998408</v>
+        <v>72.94324492998405</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>237.0924332413699</v>
+        <v>237.0924332413698</v>
       </c>
       <c r="C41" t="n">
         <v>219.6314833488968</v>
@@ -3746,7 +3746,7 @@
         <v>209.0416331985722</v>
       </c>
       <c r="E41" t="n">
-        <v>236.2889616501511</v>
+        <v>236.288961650151</v>
       </c>
       <c r="F41" t="n">
         <v>261.2346373196007</v>
@@ -3791,10 +3791,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>65.27934122996362</v>
+        <v>65.27934122996361</v>
       </c>
       <c r="U41" t="n">
-        <v>105.4817412320503</v>
+        <v>105.4817412320502</v>
       </c>
       <c r="V41" t="n">
         <v>182.1108500480242</v>
@@ -3806,7 +3806,7 @@
         <v>224.0896922563583</v>
       </c>
       <c r="Y41" t="n">
-        <v>240.5965302339429</v>
+        <v>240.5965302339428</v>
       </c>
     </row>
     <row r="42">
@@ -3834,10 +3834,10 @@
         <v>135.8553954612995</v>
       </c>
       <c r="H42" t="n">
-        <v>97.863321483828</v>
+        <v>97.86332148382802</v>
       </c>
       <c r="I42" t="n">
-        <v>38.16086372859611</v>
+        <v>38.16086372859612</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,10 +3864,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>7.763751642754542</v>
+        <v>7.763751642754556</v>
       </c>
       <c r="S42" t="n">
-        <v>144.0419631757947</v>
+        <v>144.0419631757948</v>
       </c>
       <c r="T42" t="n">
         <v>194.1665539401884</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>34.19057175982658</v>
+        <v>34.19057175982655</v>
       </c>
       <c r="C43" t="n">
-        <v>21.60541267651712</v>
+        <v>21.60541267651709</v>
       </c>
       <c r="D43" t="n">
-        <v>2.974064596101641</v>
+        <v>2.974064596101613</v>
       </c>
       <c r="E43" t="n">
-        <v>0.7925542244584562</v>
+        <v>0.7925542244584278</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>21.10197969071357</v>
+        <v>21.10197969071354</v>
       </c>
       <c r="H43" t="n">
-        <v>5.49354373777869</v>
+        <v>151.1349521598894</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>202.2744851471423</v>
+        <v>56.6330767250316</v>
       </c>
       <c r="T43" t="n">
-        <v>76.97356386573256</v>
+        <v>76.97356386573253</v>
       </c>
       <c r="U43" t="n">
-        <v>140.6095705028001</v>
+        <v>286.2509789249108</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>204.4502157893244</v>
       </c>
       <c r="W43" t="n">
         <v>140.8815899144803</v>
       </c>
       <c r="X43" t="n">
-        <v>178.0222278545338</v>
+        <v>80.06824696692641</v>
       </c>
       <c r="Y43" t="n">
-        <v>72.94324492998408</v>
+        <v>72.94324492998405</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>237.0924332413699</v>
+        <v>237.0924332413698</v>
       </c>
       <c r="C44" t="n">
         <v>219.6314833488968</v>
@@ -3983,7 +3983,7 @@
         <v>209.0416331985722</v>
       </c>
       <c r="E44" t="n">
-        <v>236.2889616501511</v>
+        <v>236.288961650151</v>
       </c>
       <c r="F44" t="n">
         <v>261.2346373196007</v>
@@ -4028,7 +4028,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>65.27934122996362</v>
+        <v>65.27934122996359</v>
       </c>
       <c r="U44" t="n">
         <v>105.4817412320503</v>
@@ -4043,7 +4043,7 @@
         <v>224.0896922563583</v>
       </c>
       <c r="Y44" t="n">
-        <v>240.5965302339429</v>
+        <v>240.5965302339428</v>
       </c>
     </row>
     <row r="45">
@@ -4071,10 +4071,10 @@
         <v>135.8553954612995</v>
       </c>
       <c r="H45" t="n">
-        <v>97.863321483828</v>
+        <v>97.86332148382802</v>
       </c>
       <c r="I45" t="n">
-        <v>38.16086372859611</v>
+        <v>38.16086372859612</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>7.763751642754542</v>
+        <v>7.763751642754556</v>
       </c>
       <c r="S45" t="n">
-        <v>144.0419631757947</v>
+        <v>144.0419631757948</v>
       </c>
       <c r="T45" t="n">
         <v>194.1665539401884</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>34.19057175982658</v>
+        <v>132.1445526474337</v>
       </c>
       <c r="C46" t="n">
-        <v>21.60541267651712</v>
+        <v>21.60541267651709</v>
       </c>
       <c r="D46" t="n">
-        <v>101.1484058828885</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0.7925542244584278</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>21.10197969071357</v>
+        <v>21.10197969071354</v>
       </c>
       <c r="H46" t="n">
-        <v>5.49354373777869</v>
+        <v>5.493543737778666</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,10 +4183,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>56.63307672503163</v>
+        <v>56.6330767250316</v>
       </c>
       <c r="T46" t="n">
-        <v>76.97356386573256</v>
+        <v>76.97356386573253</v>
       </c>
       <c r="U46" t="n">
         <v>140.6095705028001</v>
@@ -4198,10 +4198,10 @@
         <v>140.8815899144803</v>
       </c>
       <c r="X46" t="n">
-        <v>80.06824696692644</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>72.94324492998408</v>
+        <v>72.94324492998405</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1445.787358774773</v>
+        <v>943.0648368419504</v>
       </c>
       <c r="C11" t="n">
-        <v>1157.058388528409</v>
+        <v>654.3358665955861</v>
       </c>
       <c r="D11" t="n">
-        <v>1157.058388528409</v>
+        <v>376.303714682883</v>
       </c>
       <c r="E11" t="n">
-        <v>851.503682624212</v>
+        <v>70.74900877868629</v>
       </c>
       <c r="F11" t="n">
-        <v>520.7513245286519</v>
+        <v>70.74900877868629</v>
       </c>
       <c r="G11" t="n">
-        <v>184.2965410770517</v>
+        <v>70.74900877868629</v>
       </c>
       <c r="H11" t="n">
-        <v>70.74900877868626</v>
+        <v>70.74900877868629</v>
       </c>
       <c r="I11" t="n">
         <v>46.68944337289494</v>
       </c>
       <c r="J11" t="n">
-        <v>268.557630304025</v>
+        <v>101.1519812836719</v>
       </c>
       <c r="K11" t="n">
-        <v>604.5264307378739</v>
+        <v>233.5157259013832</v>
       </c>
       <c r="L11" t="n">
-        <v>805.6371221970196</v>
+        <v>434.6264173605289</v>
       </c>
       <c r="M11" t="n">
-        <v>1061.080953771158</v>
+        <v>933.0892001451766</v>
       </c>
       <c r="N11" t="n">
-        <v>1325.271941977302</v>
+        <v>1510.871061884751</v>
       </c>
       <c r="O11" t="n">
-        <v>1561.404739318495</v>
+        <v>1747.003859225944</v>
       </c>
       <c r="P11" t="n">
-        <v>2047.01833895467</v>
+        <v>2232.617458862119</v>
       </c>
       <c r="Q11" t="n">
-        <v>2334.472168644747</v>
+        <v>2309.879447798891</v>
       </c>
       <c r="R11" t="n">
         <v>2334.472168644747</v>
       </c>
       <c r="S11" t="n">
-        <v>2334.472168644747</v>
+        <v>2267.593181579086</v>
       </c>
       <c r="T11" t="n">
-        <v>2201.654453063972</v>
+        <v>2134.775465998311</v>
       </c>
       <c r="U11" t="n">
-        <v>2028.228252632604</v>
+        <v>2134.775465998311</v>
       </c>
       <c r="V11" t="n">
-        <v>2028.228252632604</v>
+        <v>1883.946125348788</v>
       </c>
       <c r="W11" t="n">
-        <v>1755.693144056538</v>
+        <v>1611.411016772721</v>
       </c>
       <c r="X11" t="n">
-        <v>1755.693144056538</v>
+        <v>1318.178805205689</v>
       </c>
       <c r="Y11" t="n">
-        <v>1445.787358774773</v>
+        <v>1008.273019923924</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>751.4613139715342</v>
+        <v>870.2411876641636</v>
       </c>
       <c r="C12" t="n">
-        <v>657.2418313844546</v>
+        <v>695.7881583830366</v>
       </c>
       <c r="D12" t="n">
-        <v>508.3074217232034</v>
+        <v>546.8537487217853</v>
       </c>
       <c r="E12" t="n">
-        <v>349.0699667177479</v>
+        <v>387.6162937163298</v>
       </c>
       <c r="F12" t="n">
-        <v>202.5354087446329</v>
+        <v>241.0817357432148</v>
       </c>
       <c r="G12" t="n">
-        <v>145.5412832555495</v>
+        <v>184.0876102541314</v>
       </c>
       <c r="H12" t="n">
-        <v>46.68944337289494</v>
+        <v>85.23577037147689</v>
       </c>
       <c r="I12" t="n">
         <v>46.68944337289494</v>
@@ -5121,49 +5121,49 @@
         <v>185.1392358768292</v>
       </c>
       <c r="K12" t="n">
-        <v>548.3928263393643</v>
+        <v>286.5722416969115</v>
       </c>
       <c r="L12" t="n">
-        <v>917.9910073910054</v>
+        <v>771.3917859409939</v>
       </c>
       <c r="M12" t="n">
-        <v>1150.563852458271</v>
+        <v>1349.173647680569</v>
       </c>
       <c r="N12" t="n">
-        <v>1403.700853608115</v>
+        <v>1926.955509420144</v>
       </c>
       <c r="O12" t="n">
-        <v>1613.051960134166</v>
+        <v>2136.306615946195</v>
       </c>
       <c r="P12" t="n">
-        <v>2077.019754551161</v>
+        <v>2284.996269409651</v>
       </c>
       <c r="Q12" t="n">
         <v>2334.472168644747</v>
       </c>
       <c r="R12" t="n">
-        <v>2326.629995268227</v>
+        <v>2334.472168644747</v>
       </c>
       <c r="S12" t="n">
-        <v>2181.133062767424</v>
+        <v>2188.975236143944</v>
       </c>
       <c r="T12" t="n">
-        <v>1985.005230504608</v>
+        <v>2073.080950575175</v>
       </c>
       <c r="U12" t="n">
-        <v>1756.880503901145</v>
+        <v>1844.956223971712</v>
       </c>
       <c r="V12" t="n">
-        <v>1521.728395669402</v>
+        <v>1628.072133688873</v>
       </c>
       <c r="W12" t="n">
-        <v>1267.491038941201</v>
+        <v>1373.834776960671</v>
       </c>
       <c r="X12" t="n">
-        <v>1059.639538735668</v>
+        <v>1165.983276755138</v>
       </c>
       <c r="Y12" t="n">
-        <v>851.879239970714</v>
+        <v>958.2229779901842</v>
       </c>
     </row>
     <row r="13">
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>539.1229485433558</v>
+        <v>539.122948543356</v>
       </c>
       <c r="C13" t="n">
         <v>450.4203123094964</v>
       </c>
       <c r="D13" t="n">
-        <v>380.537219591208</v>
+        <v>380.5372195912081</v>
       </c>
       <c r="E13" t="n">
         <v>312.8576727028624</v>
       </c>
       <c r="F13" t="n">
-        <v>246.2012718989994</v>
+        <v>246.2012718989995</v>
       </c>
       <c r="G13" t="n">
         <v>158.0071538326183</v>
       </c>
       <c r="H13" t="n">
-        <v>85.57913268839354</v>
+        <v>85.57913268839357</v>
       </c>
       <c r="I13" t="n">
         <v>46.68944337289494</v>
       </c>
       <c r="J13" t="n">
-        <v>120.2234082279187</v>
+        <v>120.2234082279186</v>
       </c>
       <c r="K13" t="n">
-        <v>320.311455508008</v>
+        <v>320.3114555080079</v>
       </c>
       <c r="L13" t="n">
         <v>609.8904447105128</v>
       </c>
       <c r="M13" t="n">
-        <v>921.3253246538488</v>
+        <v>921.3253246538483</v>
       </c>
       <c r="N13" t="n">
-        <v>1232.659405364007</v>
+        <v>1232.659405364008</v>
       </c>
       <c r="O13" t="n">
         <v>1510.213519297866</v>
@@ -5236,13 +5236,13 @@
         <v>1138.036526675914</v>
       </c>
       <c r="W13" t="n">
-        <v>928.8529033330008</v>
+        <v>928.852903333001</v>
       </c>
       <c r="X13" t="n">
-        <v>781.0968991290308</v>
+        <v>781.096899129031</v>
       </c>
       <c r="Y13" t="n">
-        <v>640.5378666795482</v>
+        <v>640.5378666795483</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1235.386153032217</v>
+        <v>1308.180261070616</v>
       </c>
       <c r="C14" t="n">
-        <v>946.6571827858525</v>
+        <v>1019.451290824252</v>
       </c>
       <c r="D14" t="n">
-        <v>946.6571827858525</v>
+        <v>1019.451290824252</v>
       </c>
       <c r="E14" t="n">
-        <v>641.1024768816557</v>
+        <v>713.8965849200551</v>
       </c>
       <c r="F14" t="n">
-        <v>641.1024768816557</v>
+        <v>383.1442268244951</v>
       </c>
       <c r="G14" t="n">
-        <v>304.6476934300557</v>
+        <v>46.68944337289494</v>
       </c>
       <c r="H14" t="n">
-        <v>70.74900877868617</v>
+        <v>46.68944337289494</v>
       </c>
       <c r="I14" t="n">
         <v>46.68944337289494</v>
       </c>
       <c r="J14" t="n">
-        <v>268.557630304025</v>
+        <v>101.1519812836719</v>
       </c>
       <c r="K14" t="n">
-        <v>604.5264307378739</v>
+        <v>554.4196843468362</v>
       </c>
       <c r="L14" t="n">
-        <v>805.6371221970196</v>
+        <v>755.530375805982</v>
       </c>
       <c r="M14" t="n">
-        <v>1061.080953771158</v>
+        <v>1036.488232925302</v>
       </c>
       <c r="N14" t="n">
-        <v>1325.271941977302</v>
+        <v>1300.679221131446</v>
       </c>
       <c r="O14" t="n">
-        <v>1561.404739318495</v>
+        <v>1536.812018472639</v>
       </c>
       <c r="P14" t="n">
-        <v>2047.01833895467</v>
+        <v>2022.425618108814</v>
       </c>
       <c r="Q14" t="n">
-        <v>2334.472168644747</v>
+        <v>2309.879447798891</v>
       </c>
       <c r="R14" t="n">
         <v>2334.472168644747</v>
       </c>
       <c r="S14" t="n">
-        <v>2267.593181579086</v>
+        <v>2334.472168644747</v>
       </c>
       <c r="T14" t="n">
-        <v>2134.775465998311</v>
+        <v>2334.472168644747</v>
       </c>
       <c r="U14" t="n">
-        <v>1961.349265566943</v>
+        <v>2217.684551289487</v>
       </c>
       <c r="V14" t="n">
-        <v>1961.349265566943</v>
+        <v>2217.684551289487</v>
       </c>
       <c r="W14" t="n">
-        <v>1961.349265566943</v>
+        <v>2217.684551289487</v>
       </c>
       <c r="X14" t="n">
-        <v>1668.117053999911</v>
+        <v>1924.452339722455</v>
       </c>
       <c r="Y14" t="n">
-        <v>1358.211268718147</v>
+        <v>1614.546554440691</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>771.7396230212132</v>
+        <v>932.2067164093081</v>
       </c>
       <c r="C15" t="n">
-        <v>597.2865937400862</v>
+        <v>757.7536871281811</v>
       </c>
       <c r="D15" t="n">
-        <v>448.352184078835</v>
+        <v>608.8192774669299</v>
       </c>
       <c r="E15" t="n">
-        <v>289.1147290733795</v>
+        <v>449.5818224614744</v>
       </c>
       <c r="F15" t="n">
-        <v>142.5801711002644</v>
+        <v>303.0472644883594</v>
       </c>
       <c r="G15" t="n">
-        <v>65.30773656150207</v>
+        <v>165.8195923052286</v>
       </c>
       <c r="H15" t="n">
-        <v>46.68944337289494</v>
+        <v>85.23577037147689</v>
       </c>
       <c r="I15" t="n">
         <v>46.68944337289494</v>
@@ -5364,13 +5364,13 @@
         <v>731.1045614300151</v>
       </c>
       <c r="M15" t="n">
-        <v>963.6774064972805</v>
+        <v>1308.88642316959</v>
       </c>
       <c r="N15" t="n">
-        <v>1541.459268236855</v>
+        <v>1562.023424319434</v>
       </c>
       <c r="O15" t="n">
-        <v>1750.810374762907</v>
+        <v>1928.330101087704</v>
       </c>
       <c r="P15" t="n">
         <v>2077.019754551161</v>
@@ -5382,7 +5382,7 @@
         <v>2334.472168644747</v>
       </c>
       <c r="S15" t="n">
-        <v>2269.208782837992</v>
+        <v>2188.975236143944</v>
       </c>
       <c r="T15" t="n">
         <v>2073.080950575175</v>
@@ -5394,13 +5394,13 @@
         <v>1609.80411573997</v>
       </c>
       <c r="W15" t="n">
-        <v>1355.566759011768</v>
+        <v>1435.800305705815</v>
       </c>
       <c r="X15" t="n">
-        <v>1147.715258806235</v>
+        <v>1227.948805500283</v>
       </c>
       <c r="Y15" t="n">
-        <v>939.9549600412813</v>
+        <v>1020.188506735329</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>539.1229485433558</v>
+        <v>539.1229485433556</v>
       </c>
       <c r="C16" t="n">
-        <v>450.4203123094964</v>
+        <v>450.4203123094961</v>
       </c>
       <c r="D16" t="n">
-        <v>380.5372195912081</v>
+        <v>380.5372195912079</v>
       </c>
       <c r="E16" t="n">
-        <v>312.8576727028624</v>
+        <v>312.8576727028623</v>
       </c>
       <c r="F16" t="n">
-        <v>246.2012718989995</v>
+        <v>246.2012718989994</v>
       </c>
       <c r="G16" t="n">
         <v>158.0071538326183</v>
       </c>
       <c r="H16" t="n">
-        <v>85.57913268839354</v>
+        <v>85.5791326883936</v>
       </c>
       <c r="I16" t="n">
         <v>46.68944337289494</v>
       </c>
       <c r="J16" t="n">
-        <v>120.2234082279187</v>
+        <v>120.2234082279186</v>
       </c>
       <c r="K16" t="n">
         <v>320.311455508008</v>
@@ -5443,7 +5443,7 @@
         <v>609.8904447105128</v>
       </c>
       <c r="M16" t="n">
-        <v>921.3253246538484</v>
+        <v>921.3253246538483</v>
       </c>
       <c r="N16" t="n">
         <v>1232.659405364007</v>
@@ -5473,13 +5473,13 @@
         <v>1138.036526675914</v>
       </c>
       <c r="W16" t="n">
-        <v>928.8529033330008</v>
+        <v>928.8529033330005</v>
       </c>
       <c r="X16" t="n">
-        <v>781.0968991290307</v>
+        <v>781.0968991290305</v>
       </c>
       <c r="Y16" t="n">
-        <v>640.5378666795481</v>
+        <v>640.5378666795478</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1338.709817470404</v>
+        <v>1156.994340046475</v>
       </c>
       <c r="C17" t="n">
-        <v>1130.214393918087</v>
+        <v>948.4989164941586</v>
       </c>
       <c r="D17" t="n">
-        <v>932.4157886994318</v>
+        <v>750.7003112755029</v>
       </c>
       <c r="E17" t="n">
-        <v>707.0946294892824</v>
+        <v>525.3791520653535</v>
       </c>
       <c r="F17" t="n">
-        <v>456.5758180877697</v>
+        <v>274.8603406638408</v>
       </c>
       <c r="G17" t="n">
         <v>200.354581330217</v>
@@ -5513,28 +5513,28 @@
         <v>46.68944337289494</v>
       </c>
       <c r="J17" t="n">
-        <v>268.557630304025</v>
+        <v>101.1519812836719</v>
       </c>
       <c r="K17" t="n">
-        <v>604.5264307378739</v>
+        <v>448.4764862469414</v>
       </c>
       <c r="L17" t="n">
-        <v>805.6371221970196</v>
+        <v>649.5871777060871</v>
       </c>
       <c r="M17" t="n">
-        <v>1061.080953771158</v>
+        <v>905.0310092802251</v>
       </c>
       <c r="N17" t="n">
-        <v>1325.271941977302</v>
+        <v>1169.221997486369</v>
       </c>
       <c r="O17" t="n">
-        <v>1561.404739318495</v>
+        <v>1747.003859225944</v>
       </c>
       <c r="P17" t="n">
-        <v>2047.01833895467</v>
+        <v>2232.617458862119</v>
       </c>
       <c r="Q17" t="n">
-        <v>2334.472168644747</v>
+        <v>2309.879447798891</v>
       </c>
       <c r="R17" t="n">
         <v>2334.472168644747</v>
@@ -5546,19 +5546,19 @@
         <v>2281.887999758019</v>
       </c>
       <c r="U17" t="n">
-        <v>2188.6953460207</v>
+        <v>2188.695346020699</v>
       </c>
       <c r="V17" t="n">
-        <v>2018.099552065224</v>
+        <v>2018.099552065223</v>
       </c>
       <c r="W17" t="n">
-        <v>2007.513467607133</v>
+        <v>1825.797990183204</v>
       </c>
       <c r="X17" t="n">
-        <v>1794.514802734148</v>
+        <v>1612.799325310219</v>
       </c>
       <c r="Y17" t="n">
-        <v>1564.842564146431</v>
+        <v>1383.127086722502</v>
       </c>
     </row>
     <row r="18">
@@ -5580,37 +5580,37 @@
         <v>231.7703283445919</v>
       </c>
       <c r="F18" t="n">
-        <v>85.23577037147687</v>
+        <v>85.23577037147689</v>
       </c>
       <c r="G18" t="n">
-        <v>85.23577037147687</v>
+        <v>85.23577037147689</v>
       </c>
       <c r="H18" t="n">
-        <v>85.23577037147687</v>
+        <v>85.23577037147689</v>
       </c>
       <c r="I18" t="n">
         <v>46.68944337289494</v>
       </c>
       <c r="J18" t="n">
-        <v>185.1392358768292</v>
+        <v>60.30911088982445</v>
       </c>
       <c r="K18" t="n">
-        <v>380.703535991852</v>
+        <v>423.5627013523596</v>
       </c>
       <c r="L18" t="n">
-        <v>563.4152710825028</v>
+        <v>973.406378293435</v>
       </c>
       <c r="M18" t="n">
-        <v>1141.197132822078</v>
+        <v>1205.9792233607</v>
       </c>
       <c r="N18" t="n">
-        <v>1718.978994561653</v>
+        <v>1459.116224510544</v>
       </c>
       <c r="O18" t="n">
-        <v>1928.330101087704</v>
+        <v>1821.028474992657</v>
       </c>
       <c r="P18" t="n">
-        <v>2077.019754551161</v>
+        <v>2284.996269409651</v>
       </c>
       <c r="Q18" t="n">
         <v>2334.472168644747</v>
@@ -5619,10 +5619,10 @@
         <v>2326.629995268227</v>
       </c>
       <c r="S18" t="n">
-        <v>2211.864382109204</v>
+        <v>2181.133062767424</v>
       </c>
       <c r="T18" t="n">
-        <v>2015.736549846387</v>
+        <v>1985.005230504608</v>
       </c>
       <c r="U18" t="n">
         <v>1787.611823242925</v>
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>68.32564878030874</v>
+        <v>68.3256487803087</v>
       </c>
       <c r="C19" t="n">
-        <v>59.85655924049667</v>
+        <v>59.85655924049665</v>
       </c>
       <c r="D19" t="n">
-        <v>59.85655924049667</v>
+        <v>59.85655924049665</v>
       </c>
       <c r="E19" t="n">
-        <v>59.85655924049667</v>
+        <v>59.85655924049665</v>
       </c>
       <c r="F19" t="n">
-        <v>59.85655924049667</v>
+        <v>59.85655924049665</v>
       </c>
       <c r="G19" t="n">
-        <v>51.89598786816293</v>
+        <v>51.89598786816294</v>
       </c>
       <c r="H19" t="n">
-        <v>51.89598786816293</v>
+        <v>51.89598786816294</v>
       </c>
       <c r="I19" t="n">
-        <v>51.89598786816293</v>
+        <v>51.89598786816294</v>
       </c>
       <c r="J19" t="n">
         <v>46.68944337289494</v>
       </c>
       <c r="K19" t="n">
-        <v>168.1405915381484</v>
+        <v>168.1405915381483</v>
       </c>
       <c r="L19" t="n">
         <v>379.0826816258174</v>
@@ -5698,25 +5698,25 @@
         <v>1208.306061780872</v>
       </c>
       <c r="S19" t="n">
-        <v>1114.995539668578</v>
+        <v>1003.988400016081</v>
       </c>
       <c r="T19" t="n">
-        <v>890.1319312970194</v>
+        <v>779.1247916445225</v>
       </c>
       <c r="U19" t="n">
-        <v>600.989528342564</v>
+        <v>650.449482078162</v>
       </c>
       <c r="V19" t="n">
-        <v>346.3050401366771</v>
+        <v>556.23208726037</v>
       </c>
       <c r="W19" t="n">
-        <v>217.3549634878114</v>
+        <v>266.8149172234094</v>
       </c>
       <c r="X19" t="n">
-        <v>149.8325059778889</v>
+        <v>199.2924597134869</v>
       </c>
       <c r="Y19" t="n">
-        <v>89.5070202224536</v>
+        <v>89.50702022245353</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1156.994340046475</v>
+        <v>1338.709817470404</v>
       </c>
       <c r="C20" t="n">
-        <v>948.498916494158</v>
+        <v>1130.214393918087</v>
       </c>
       <c r="D20" t="n">
-        <v>932.4157886994318</v>
+        <v>932.4157886994316</v>
       </c>
       <c r="E20" t="n">
-        <v>707.0946294892824</v>
+        <v>707.0946294892822</v>
       </c>
       <c r="F20" t="n">
-        <v>456.5758180877697</v>
+        <v>456.5758180877694</v>
       </c>
       <c r="G20" t="n">
         <v>200.354581330217</v>
@@ -5750,28 +5750,28 @@
         <v>46.68944337289494</v>
       </c>
       <c r="J20" t="n">
-        <v>268.557630304025</v>
+        <v>105.9209008759248</v>
       </c>
       <c r="K20" t="n">
-        <v>604.5264307378739</v>
+        <v>238.2846454936361</v>
       </c>
       <c r="L20" t="n">
-        <v>805.6371221970196</v>
+        <v>439.3953369527818</v>
       </c>
       <c r="M20" t="n">
-        <v>1061.080953771158</v>
+        <v>694.8391685269198</v>
       </c>
       <c r="N20" t="n">
-        <v>1325.271941977302</v>
+        <v>959.0301567330641</v>
       </c>
       <c r="O20" t="n">
-        <v>1561.404739318495</v>
+        <v>1536.812018472639</v>
       </c>
       <c r="P20" t="n">
-        <v>2047.01833895467</v>
+        <v>2022.425618108814</v>
       </c>
       <c r="Q20" t="n">
-        <v>2334.472168644747</v>
+        <v>2309.879447798891</v>
       </c>
       <c r="R20" t="n">
         <v>2334.472168644747</v>
@@ -5789,13 +5789,13 @@
         <v>2018.099552065223</v>
       </c>
       <c r="W20" t="n">
-        <v>1825.797990183204</v>
+        <v>2007.513467607133</v>
       </c>
       <c r="X20" t="n">
-        <v>1612.799325310219</v>
+        <v>1794.514802734148</v>
       </c>
       <c r="Y20" t="n">
-        <v>1383.127086722502</v>
+        <v>1564.842564146431</v>
       </c>
     </row>
     <row r="21">
@@ -5811,40 +5811,40 @@
         <v>509.2108736695189</v>
       </c>
       <c r="D21" t="n">
-        <v>489.6891285345963</v>
+        <v>360.2764640082677</v>
       </c>
       <c r="E21" t="n">
-        <v>330.4516735291407</v>
+        <v>360.2764640082677</v>
       </c>
       <c r="F21" t="n">
-        <v>183.9171155560257</v>
+        <v>213.7419060351527</v>
       </c>
       <c r="G21" t="n">
-        <v>46.68944337289494</v>
+        <v>76.51423385202187</v>
       </c>
       <c r="H21" t="n">
-        <v>46.68944337289494</v>
+        <v>76.51423385202187</v>
       </c>
       <c r="I21" t="n">
         <v>46.68944337289494</v>
       </c>
       <c r="J21" t="n">
-        <v>185.1392358768292</v>
+        <v>60.30911088982445</v>
       </c>
       <c r="K21" t="n">
-        <v>548.3928263393643</v>
+        <v>423.5627013523596</v>
       </c>
       <c r="L21" t="n">
-        <v>731.1045614300151</v>
+        <v>917.991007391006</v>
       </c>
       <c r="M21" t="n">
-        <v>963.6774064972805</v>
+        <v>1150.563852458271</v>
       </c>
       <c r="N21" t="n">
-        <v>1541.459268236855</v>
+        <v>1403.700853608115</v>
       </c>
       <c r="O21" t="n">
-        <v>1750.810374762907</v>
+        <v>1613.051960134167</v>
       </c>
       <c r="P21" t="n">
         <v>2077.019754551161</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>117.7856025159067</v>
+        <v>63.11910428504068</v>
       </c>
       <c r="C22" t="n">
-        <v>109.3165129760947</v>
+        <v>54.65001474522865</v>
       </c>
       <c r="D22" t="n">
-        <v>109.3165129760947</v>
+        <v>54.65001474522865</v>
       </c>
       <c r="E22" t="n">
-        <v>109.3165129760947</v>
+        <v>54.65001474522865</v>
       </c>
       <c r="F22" t="n">
-        <v>109.3165129760947</v>
+        <v>54.65001474522865</v>
       </c>
       <c r="G22" t="n">
-        <v>101.3559416037609</v>
+        <v>46.68944337289494</v>
       </c>
       <c r="H22" t="n">
         <v>46.68944337289494</v>
@@ -5911,7 +5911,7 @@
         <v>46.68944337289494</v>
       </c>
       <c r="K22" t="n">
-        <v>168.1405915381484</v>
+        <v>168.1405915381483</v>
       </c>
       <c r="L22" t="n">
         <v>379.0826816258174</v>
@@ -5932,28 +5932,28 @@
         <v>1208.306061780872</v>
       </c>
       <c r="R22" t="n">
-        <v>1208.306061780872</v>
+        <v>1085.884695843493</v>
       </c>
       <c r="S22" t="n">
-        <v>1164.455493404176</v>
+        <v>881.5670340787028</v>
       </c>
       <c r="T22" t="n">
-        <v>1100.058978420712</v>
+        <v>724.4582934136563</v>
       </c>
       <c r="U22" t="n">
-        <v>810.9165754662569</v>
+        <v>595.7829838472958</v>
       </c>
       <c r="V22" t="n">
-        <v>716.6991806484648</v>
+        <v>501.5655890295038</v>
       </c>
       <c r="W22" t="n">
-        <v>587.749103999599</v>
+        <v>212.1484189925432</v>
       </c>
       <c r="X22" t="n">
-        <v>520.2266464896766</v>
+        <v>144.6259614826207</v>
       </c>
       <c r="Y22" t="n">
-        <v>299.4340673461464</v>
+        <v>84.30047572718551</v>
       </c>
     </row>
     <row r="23">
@@ -5969,67 +5969,67 @@
         <v>1133.922873049188</v>
       </c>
       <c r="D23" t="n">
-        <v>936.1242678305326</v>
+        <v>936.1242678305322</v>
       </c>
       <c r="E23" t="n">
-        <v>710.8031086203832</v>
+        <v>710.8031086203828</v>
       </c>
       <c r="F23" t="n">
-        <v>460.2842972188705</v>
+        <v>460.2842972188701</v>
       </c>
       <c r="G23" t="n">
-        <v>204.0630604613176</v>
+        <v>204.0630604613175</v>
       </c>
       <c r="H23" t="n">
-        <v>50.39792250399553</v>
+        <v>50.39792250399552</v>
       </c>
       <c r="I23" t="n">
-        <v>50.39792250399553</v>
+        <v>50.39792250399552</v>
       </c>
       <c r="J23" t="n">
-        <v>272.2661094351256</v>
+        <v>104.8604604147725</v>
       </c>
       <c r="K23" t="n">
-        <v>725.53381249829</v>
+        <v>558.1281634779368</v>
       </c>
       <c r="L23" t="n">
-        <v>926.6445039574357</v>
+        <v>824.2607400552366</v>
       </c>
       <c r="M23" t="n">
-        <v>1182.088335531574</v>
+        <v>1079.704571629375</v>
       </c>
       <c r="N23" t="n">
-        <v>1446.279323737718</v>
+        <v>1343.895559835519</v>
       </c>
       <c r="O23" t="n">
-        <v>1722.235975027669</v>
+        <v>1957.02053662683</v>
       </c>
       <c r="P23" t="n">
-        <v>2207.849574663844</v>
+        <v>2442.634136263005</v>
       </c>
       <c r="Q23" t="n">
-        <v>2495.303404353921</v>
+        <v>2519.896125199776</v>
       </c>
       <c r="R23" t="n">
-        <v>2519.896125199777</v>
+        <v>2519.896125199776</v>
       </c>
       <c r="S23" t="n">
-        <v>2519.896125199777</v>
+        <v>2519.896125199776</v>
       </c>
       <c r="T23" t="n">
         <v>2467.311956313049</v>
       </c>
       <c r="U23" t="n">
-        <v>2374.119302575729</v>
+        <v>2374.119302575728</v>
       </c>
       <c r="V23" t="n">
-        <v>2203.523508620253</v>
+        <v>2203.523508620252</v>
       </c>
       <c r="W23" t="n">
-        <v>2011.221946738234</v>
+        <v>2011.221946738233</v>
       </c>
       <c r="X23" t="n">
-        <v>1798.223281865249</v>
+        <v>1798.223281865248</v>
       </c>
       <c r="Y23" t="n">
         <v>1568.551043277532</v>
@@ -6057,13 +6057,13 @@
         <v>247.7705809612465</v>
       </c>
       <c r="G24" t="n">
-        <v>187.796089385232</v>
+        <v>110.5429087781157</v>
       </c>
       <c r="H24" t="n">
         <v>88.94424950257746</v>
       </c>
       <c r="I24" t="n">
-        <v>50.39792250399553</v>
+        <v>50.39792250399552</v>
       </c>
       <c r="J24" t="n">
         <v>188.8477150079298</v>
@@ -6081,19 +6081,19 @@
         <v>1587.65482862865</v>
       </c>
       <c r="O24" t="n">
-        <v>2186.929631238664</v>
+        <v>1798.475916689196</v>
       </c>
       <c r="P24" t="n">
-        <v>2335.61928470212</v>
+        <v>2262.44371110619</v>
       </c>
       <c r="Q24" t="n">
-        <v>2519.896125199777</v>
+        <v>2519.896125199776</v>
       </c>
       <c r="R24" t="n">
-        <v>2519.896125199777</v>
+        <v>2519.896125199776</v>
       </c>
       <c r="S24" t="n">
-        <v>2374.399192698974</v>
+        <v>2374.399192698973</v>
       </c>
       <c r="T24" t="n">
         <v>2178.271360436157</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>281.9611750351024</v>
+        <v>442.4282684231972</v>
       </c>
       <c r="C25" t="n">
-        <v>273.4920854952903</v>
+        <v>433.9591788833852</v>
       </c>
       <c r="D25" t="n">
-        <v>273.4920854952903</v>
+        <v>283.8425394710495</v>
       </c>
       <c r="E25" t="n">
-        <v>125.5789919128972</v>
+        <v>135.9294458886563</v>
       </c>
       <c r="F25" t="n">
-        <v>125.5789919128972</v>
+        <v>135.9294458886563</v>
       </c>
       <c r="G25" t="n">
-        <v>117.6184205405635</v>
+        <v>127.9688745163226</v>
       </c>
       <c r="H25" t="n">
-        <v>55.60446699926351</v>
+        <v>50.39792250399552</v>
       </c>
       <c r="I25" t="n">
-        <v>55.60446699926351</v>
+        <v>50.39792250399552</v>
       </c>
       <c r="J25" t="n">
-        <v>50.39792250399553</v>
+        <v>50.39792250399552</v>
       </c>
       <c r="K25" t="n">
         <v>171.8490706692489</v>
       </c>
       <c r="L25" t="n">
-        <v>382.791160756918</v>
+        <v>382.7911607569179</v>
       </c>
       <c r="M25" t="n">
         <v>615.5891415854176</v>
@@ -6166,31 +6166,31 @@
         <v>1193.890897059297</v>
       </c>
       <c r="Q25" t="n">
-        <v>1212.014540911973</v>
+        <v>1212.014540911972</v>
       </c>
       <c r="R25" t="n">
-        <v>1212.014540911973</v>
+        <v>1212.014540911972</v>
       </c>
       <c r="S25" t="n">
-        <v>1007.696879147182</v>
+        <v>1168.163972535277</v>
       </c>
       <c r="T25" t="n">
-        <v>782.8332707756233</v>
+        <v>1103.767457551813</v>
       </c>
       <c r="U25" t="n">
-        <v>654.1579612092628</v>
+        <v>975.0921479854524</v>
       </c>
       <c r="V25" t="n">
-        <v>559.9405663914707</v>
+        <v>720.4076597795655</v>
       </c>
       <c r="W25" t="n">
-        <v>430.990489742605</v>
+        <v>591.4575831306997</v>
       </c>
       <c r="X25" t="n">
-        <v>363.4680322326824</v>
+        <v>523.9351256207773</v>
       </c>
       <c r="Y25" t="n">
-        <v>303.1425464772472</v>
+        <v>463.609639865342</v>
       </c>
     </row>
     <row r="26">
@@ -6200,49 +6200,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1871.021482161255</v>
+        <v>1871.021482161256</v>
       </c>
       <c r="C26" t="n">
-        <v>1582.292511914891</v>
+        <v>1582.292511914892</v>
       </c>
       <c r="D26" t="n">
-        <v>1304.260360002188</v>
+        <v>1304.260360002189</v>
       </c>
       <c r="E26" t="n">
-        <v>998.7056540979913</v>
+        <v>998.7056540979921</v>
       </c>
       <c r="F26" t="n">
-        <v>667.9532960024312</v>
+        <v>667.9532960024321</v>
       </c>
       <c r="G26" t="n">
-        <v>331.498512550831</v>
+        <v>331.4985125508312</v>
       </c>
       <c r="H26" t="n">
-        <v>97.59982789946172</v>
+        <v>97.5998278994617</v>
       </c>
       <c r="I26" t="n">
-        <v>73.54026249367041</v>
+        <v>73.5402624936704</v>
       </c>
       <c r="J26" t="n">
-        <v>128.0028004044474</v>
+        <v>295.4084494248004</v>
       </c>
       <c r="K26" t="n">
-        <v>581.2705034676119</v>
+        <v>748.6761524879648</v>
       </c>
       <c r="L26" t="n">
-        <v>1195.865797331704</v>
+        <v>1363.271446352057</v>
       </c>
       <c r="M26" t="n">
-        <v>1896.328027063746</v>
+        <v>2063.733676084099</v>
       </c>
       <c r="N26" t="n">
-        <v>2593.492470437754</v>
+        <v>2760.898119458107</v>
       </c>
       <c r="O26" t="n">
-        <v>3206.617447229065</v>
+        <v>3374.023096249418</v>
       </c>
       <c r="P26" t="n">
-        <v>3599.751135746749</v>
+        <v>3541.055974795825</v>
       </c>
       <c r="Q26" t="n">
         <v>3677.01312468352</v>
@@ -6257,19 +6257,19 @@
         <v>3477.316422037084</v>
       </c>
       <c r="U26" t="n">
-        <v>3303.890221605716</v>
+        <v>3303.890221605717</v>
       </c>
       <c r="V26" t="n">
-        <v>3053.060880956193</v>
+        <v>3053.060880956194</v>
       </c>
       <c r="W26" t="n">
-        <v>2780.525772380126</v>
+        <v>2780.525772380127</v>
       </c>
       <c r="X26" t="n">
-        <v>2487.293560813094</v>
+        <v>2487.293560813095</v>
       </c>
       <c r="Y26" t="n">
-        <v>2177.38777553133</v>
+        <v>2177.387775531331</v>
       </c>
     </row>
     <row r="27">
@@ -6300,7 +6300,7 @@
         <v>112.0865894922523</v>
       </c>
       <c r="I27" t="n">
-        <v>73.54026249367041</v>
+        <v>73.5402624936704</v>
       </c>
       <c r="J27" t="n">
         <v>211.9900549976047</v>
@@ -6312,13 +6312,13 @@
         <v>1125.087322401215</v>
       </c>
       <c r="M27" t="n">
-        <v>1357.660167468481</v>
+        <v>1357.66016746848</v>
       </c>
       <c r="N27" t="n">
         <v>1610.797168618325</v>
       </c>
       <c r="O27" t="n">
-        <v>1906.713610662506</v>
+        <v>1906.713610662507</v>
       </c>
       <c r="P27" t="n">
         <v>2370.681405079501</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>565.9737676641314</v>
+        <v>565.9737676641307</v>
       </c>
       <c r="C28" t="n">
-        <v>477.2711314302719</v>
+        <v>477.2711314302713</v>
       </c>
       <c r="D28" t="n">
-        <v>407.3880387119835</v>
+        <v>407.388038711983</v>
       </c>
       <c r="E28" t="n">
-        <v>339.7084918236379</v>
+        <v>339.7084918236374</v>
       </c>
       <c r="F28" t="n">
-        <v>273.0520910197749</v>
+        <v>273.0520910197744</v>
       </c>
       <c r="G28" t="n">
-        <v>184.8579729533938</v>
+        <v>184.8579729533933</v>
       </c>
       <c r="H28" t="n">
-        <v>112.429951809169</v>
+        <v>112.4299518091686</v>
       </c>
       <c r="I28" t="n">
-        <v>73.54026249367041</v>
+        <v>73.5402624936704</v>
       </c>
       <c r="J28" t="n">
         <v>147.0742273486941</v>
       </c>
       <c r="K28" t="n">
-        <v>347.1622746287834</v>
+        <v>347.1622746287831</v>
       </c>
       <c r="L28" t="n">
-        <v>636.7412638312883</v>
+        <v>636.7412638312881</v>
       </c>
       <c r="M28" t="n">
-        <v>948.1761437746238</v>
+        <v>948.1761437746236</v>
       </c>
       <c r="N28" t="n">
         <v>1259.510224484782</v>
@@ -6403,31 +6403,31 @@
         <v>1762.388596593011</v>
       </c>
       <c r="Q28" t="n">
-        <v>1859.149139560522</v>
+        <v>1859.149139560521</v>
       </c>
       <c r="R28" t="n">
-        <v>1816.961320317191</v>
+        <v>1816.96132031719</v>
       </c>
       <c r="S28" t="n">
-        <v>1692.877205246448</v>
+        <v>1692.877205246447</v>
       </c>
       <c r="T28" t="n">
         <v>1548.247143568936</v>
       </c>
       <c r="U28" t="n">
-        <v>1339.338287308529</v>
+        <v>1339.338287308528</v>
       </c>
       <c r="V28" t="n">
         <v>1164.887345796689</v>
       </c>
       <c r="W28" t="n">
-        <v>955.703722453776</v>
+        <v>955.7037224537758</v>
       </c>
       <c r="X28" t="n">
-        <v>807.947718249806</v>
+        <v>807.9477182498058</v>
       </c>
       <c r="Y28" t="n">
-        <v>667.3886858003236</v>
+        <v>667.3886858003229</v>
       </c>
     </row>
     <row r="29">
@@ -6440,10 +6440,10 @@
         <v>1871.021482161256</v>
       </c>
       <c r="C29" t="n">
-        <v>1582.292511914892</v>
+        <v>1582.292511914891</v>
       </c>
       <c r="D29" t="n">
-        <v>1304.260360002188</v>
+        <v>1304.260360002189</v>
       </c>
       <c r="E29" t="n">
         <v>998.7056540979918</v>
@@ -6455,34 +6455,34 @@
         <v>331.4985125508315</v>
       </c>
       <c r="H29" t="n">
-        <v>97.5998278994617</v>
+        <v>97.59982789946176</v>
       </c>
       <c r="I29" t="n">
         <v>73.5402624936704</v>
       </c>
       <c r="J29" t="n">
-        <v>128.0028004044474</v>
+        <v>177.7305071369129</v>
       </c>
       <c r="K29" t="n">
-        <v>581.2705034676119</v>
+        <v>630.9982102000772</v>
       </c>
       <c r="L29" t="n">
-        <v>1195.865797331704</v>
+        <v>1245.593504064169</v>
       </c>
       <c r="M29" t="n">
-        <v>1896.328027063746</v>
+        <v>1946.055733796211</v>
       </c>
       <c r="N29" t="n">
-        <v>2593.492470437754</v>
+        <v>2643.220177170219</v>
       </c>
       <c r="O29" t="n">
-        <v>3206.617447229065</v>
+        <v>2879.352974511412</v>
       </c>
       <c r="P29" t="n">
-        <v>3599.751135746748</v>
+        <v>3364.966574147587</v>
       </c>
       <c r="Q29" t="n">
-        <v>3677.01312468352</v>
+        <v>3652.420403837664</v>
       </c>
       <c r="R29" t="n">
         <v>3677.01312468352</v>
@@ -6506,7 +6506,7 @@
         <v>2487.293560813095</v>
       </c>
       <c r="Y29" t="n">
-        <v>2177.387775531331</v>
+        <v>2177.38777553133</v>
       </c>
     </row>
     <row r="30">
@@ -6543,19 +6543,19 @@
         <v>211.9900549976047</v>
       </c>
       <c r="K30" t="n">
-        <v>313.423060817687</v>
+        <v>575.2436454601398</v>
       </c>
       <c r="L30" t="n">
-        <v>863.2667377587625</v>
+        <v>1125.087322401215</v>
       </c>
       <c r="M30" t="n">
-        <v>1095.839582826028</v>
+        <v>1357.66016746848</v>
       </c>
       <c r="N30" t="n">
-        <v>1348.976583975872</v>
+        <v>1697.362504136455</v>
       </c>
       <c r="O30" t="n">
-        <v>1906.713610662506</v>
+        <v>1906.713610662507</v>
       </c>
       <c r="P30" t="n">
         <v>2370.681405079501</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>565.9737676641314</v>
+        <v>565.9737676641302</v>
       </c>
       <c r="C31" t="n">
-        <v>477.2711314302719</v>
+        <v>477.2711314302706</v>
       </c>
       <c r="D31" t="n">
-        <v>407.3880387119835</v>
+        <v>407.3880387119823</v>
       </c>
       <c r="E31" t="n">
-        <v>339.7084918236379</v>
+        <v>339.7084918236366</v>
       </c>
       <c r="F31" t="n">
-        <v>273.0520910197749</v>
+        <v>273.0520910197736</v>
       </c>
       <c r="G31" t="n">
         <v>184.8579729533938</v>
@@ -6619,16 +6619,16 @@
         <v>73.5402624936704</v>
       </c>
       <c r="J31" t="n">
-        <v>147.074227348694</v>
+        <v>147.0742273486941</v>
       </c>
       <c r="K31" t="n">
-        <v>347.1622746287832</v>
+        <v>347.1622746287833</v>
       </c>
       <c r="L31" t="n">
-        <v>636.7412638312881</v>
+        <v>636.7412638312879</v>
       </c>
       <c r="M31" t="n">
-        <v>948.1761437746236</v>
+        <v>948.1761437746234</v>
       </c>
       <c r="N31" t="n">
         <v>1259.510224484782</v>
@@ -6640,31 +6640,31 @@
         <v>1762.388596593011</v>
       </c>
       <c r="Q31" t="n">
-        <v>1859.149139560522</v>
+        <v>1859.149139560521</v>
       </c>
       <c r="R31" t="n">
-        <v>1816.961320317191</v>
+        <v>1816.96132031719</v>
       </c>
       <c r="S31" t="n">
-        <v>1692.877205246448</v>
+        <v>1692.877205246447</v>
       </c>
       <c r="T31" t="n">
-        <v>1548.247143568937</v>
+        <v>1548.247143568936</v>
       </c>
       <c r="U31" t="n">
-        <v>1339.338287308529</v>
+        <v>1339.338287308528</v>
       </c>
       <c r="V31" t="n">
-        <v>1164.887345796689</v>
+        <v>1164.887345796688</v>
       </c>
       <c r="W31" t="n">
-        <v>955.7037224537762</v>
+        <v>955.7037224537752</v>
       </c>
       <c r="X31" t="n">
-        <v>807.9477182498063</v>
+        <v>807.9477182498052</v>
       </c>
       <c r="Y31" t="n">
-        <v>667.3886858003236</v>
+        <v>667.3886858003225</v>
       </c>
     </row>
     <row r="32">
@@ -6683,49 +6683,49 @@
         <v>1304.260360002188</v>
       </c>
       <c r="E32" t="n">
-        <v>998.7056540979916</v>
+        <v>998.7056540979918</v>
       </c>
       <c r="F32" t="n">
-        <v>667.9532960024314</v>
+        <v>667.9532960024317</v>
       </c>
       <c r="G32" t="n">
-        <v>331.4985125508312</v>
+        <v>331.4985125508315</v>
       </c>
       <c r="H32" t="n">
-        <v>97.5998278994617</v>
+        <v>97.59982789946173</v>
       </c>
       <c r="I32" t="n">
         <v>73.5402624936704</v>
       </c>
       <c r="J32" t="n">
-        <v>128.0028004044474</v>
+        <v>295.4084494248004</v>
       </c>
       <c r="K32" t="n">
-        <v>581.2705034676119</v>
+        <v>748.6761524879648</v>
       </c>
       <c r="L32" t="n">
-        <v>1195.865797331704</v>
+        <v>1363.271446352057</v>
       </c>
       <c r="M32" t="n">
-        <v>1896.328027063746</v>
+        <v>1618.715277926195</v>
       </c>
       <c r="N32" t="n">
-        <v>2593.492470437754</v>
+        <v>2266.227997720101</v>
       </c>
       <c r="O32" t="n">
-        <v>3206.617447229065</v>
+        <v>2879.352974511412</v>
       </c>
       <c r="P32" t="n">
-        <v>3599.751135746748</v>
+        <v>3364.966574147587</v>
       </c>
       <c r="Q32" t="n">
-        <v>3677.01312468352</v>
+        <v>3652.420403837664</v>
       </c>
       <c r="R32" t="n">
         <v>3677.01312468352</v>
       </c>
       <c r="S32" t="n">
-        <v>3610.13413761786</v>
+        <v>3610.134137617859</v>
       </c>
       <c r="T32" t="n">
         <v>3477.316422037085</v>
@@ -6786,13 +6786,13 @@
         <v>1125.087322401215</v>
       </c>
       <c r="M33" t="n">
-        <v>1357.660167468481</v>
+        <v>1444.225502986611</v>
       </c>
       <c r="N33" t="n">
-        <v>1610.797168618325</v>
+        <v>1697.362504136455</v>
       </c>
       <c r="O33" t="n">
-        <v>1906.713610662506</v>
+        <v>1906.713610662507</v>
       </c>
       <c r="P33" t="n">
         <v>2370.681405079501</v>
@@ -6935,25 +6935,25 @@
         <v>53.94096893601659</v>
       </c>
       <c r="J35" t="n">
-        <v>108.4035068467936</v>
+        <v>275.8091558671466</v>
       </c>
       <c r="K35" t="n">
-        <v>266.9865069459553</v>
+        <v>729.0768589303109</v>
       </c>
       <c r="L35" t="n">
-        <v>881.581800810047</v>
+        <v>930.1875503894566</v>
       </c>
       <c r="M35" t="n">
-        <v>1549.101291393252</v>
+        <v>1185.631381963595</v>
       </c>
       <c r="N35" t="n">
-        <v>2216.620781976458</v>
+        <v>1449.822370169739</v>
       </c>
       <c r="O35" t="n">
-        <v>2452.753579317651</v>
+        <v>1923.981017474578</v>
       </c>
       <c r="P35" t="n">
-        <v>2619.786457864058</v>
+        <v>2409.594617110753</v>
       </c>
       <c r="Q35" t="n">
         <v>2697.048446800829</v>
@@ -6980,7 +6980,7 @@
         <v>1908.602805324366</v>
       </c>
       <c r="Y35" t="n">
-        <v>1665.576007108263</v>
+        <v>1665.576007108262</v>
       </c>
     </row>
     <row r="36">
@@ -7002,31 +7002,31 @@
         <v>475.1013659734989</v>
       </c>
       <c r="F36" t="n">
-        <v>328.5668080003838</v>
+        <v>328.5668080003839</v>
       </c>
       <c r="G36" t="n">
         <v>191.3391358172531</v>
       </c>
       <c r="H36" t="n">
-        <v>92.48729593459852</v>
+        <v>92.48729593459854</v>
       </c>
       <c r="I36" t="n">
         <v>53.94096893601659</v>
       </c>
       <c r="J36" t="n">
-        <v>192.3907614399508</v>
+        <v>67.5606364529461</v>
       </c>
       <c r="K36" t="n">
-        <v>555.6443519024861</v>
+        <v>430.8142269154812</v>
       </c>
       <c r="L36" t="n">
-        <v>1105.488028843562</v>
+        <v>980.6579038565567</v>
       </c>
       <c r="M36" t="n">
-        <v>1338.060873910827</v>
+        <v>1213.230748923822</v>
       </c>
       <c r="N36" t="n">
-        <v>1591.197875060671</v>
+        <v>1466.367750073666</v>
       </c>
       <c r="O36" t="n">
         <v>1887.114317104853</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>205.3768636968014</v>
+        <v>111.6399931540821</v>
       </c>
       <c r="C37" t="n">
-        <v>84.60979949061493</v>
+        <v>89.81634398588295</v>
       </c>
       <c r="D37" t="n">
-        <v>81.60569383798702</v>
+        <v>86.81223833325502</v>
       </c>
       <c r="E37" t="n">
-        <v>80.8051340153017</v>
+        <v>86.01167851056971</v>
       </c>
       <c r="F37" t="n">
-        <v>80.8051340153017</v>
+        <v>86.01167851056971</v>
       </c>
       <c r="G37" t="n">
-        <v>59.49000301458092</v>
+        <v>64.69654750984893</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94096893601659</v>
+        <v>59.14751343128459</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94096893601659</v>
+        <v>59.14751343128459</v>
       </c>
       <c r="J37" t="n">
         <v>53.94096893601659</v>
@@ -7102,43 +7102,43 @@
         <v>386.334207188939</v>
       </c>
       <c r="M37" t="n">
-        <v>619.1321880174387</v>
+        <v>619.1321880174386</v>
       </c>
       <c r="N37" t="n">
-        <v>851.8293696127614</v>
+        <v>851.8293696127612</v>
       </c>
       <c r="O37" t="n">
         <v>1050.746584431784</v>
       </c>
       <c r="P37" t="n">
-        <v>1197.433943491319</v>
+        <v>1197.433943491318</v>
       </c>
       <c r="Q37" t="n">
-        <v>1215.557587343994</v>
+        <v>1215.557587343993</v>
       </c>
       <c r="R37" t="n">
-        <v>1215.557587343994</v>
+        <v>1215.557587343993</v>
       </c>
       <c r="S37" t="n">
         <v>1158.352459338911</v>
       </c>
       <c r="T37" t="n">
-        <v>1080.60138472706</v>
+        <v>933.4888509673517</v>
       </c>
       <c r="U37" t="n">
-        <v>938.5715155323126</v>
+        <v>644.3464480128963</v>
       </c>
       <c r="V37" t="n">
-        <v>830.9995610861334</v>
+        <v>443.0376230239987</v>
       </c>
       <c r="W37" t="n">
-        <v>541.5823910491729</v>
+        <v>300.7329867467458</v>
       </c>
       <c r="X37" t="n">
-        <v>313.5928401511555</v>
+        <v>219.8559696084363</v>
       </c>
       <c r="Y37" t="n">
-        <v>239.9127947673333</v>
+        <v>146.175924224614</v>
       </c>
     </row>
     <row r="38">
@@ -7154,37 +7154,37 @@
         <v>1204.238717623145</v>
       </c>
       <c r="D38" t="n">
-        <v>993.0855527761018</v>
+        <v>993.0855527761016</v>
       </c>
       <c r="E38" t="n">
-        <v>754.4098339375657</v>
+        <v>754.4098339375655</v>
       </c>
       <c r="F38" t="n">
-        <v>490.536462907666</v>
+        <v>490.5364629076657</v>
       </c>
       <c r="G38" t="n">
-        <v>220.9606665217257</v>
+        <v>220.9606665217256</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94096893601661</v>
+        <v>53.9409689360166</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94096893601661</v>
+        <v>53.9409689360166</v>
       </c>
       <c r="J38" t="n">
         <v>108.4035068467936</v>
       </c>
       <c r="K38" t="n">
-        <v>561.6712099099581</v>
+        <v>561.671209909958</v>
       </c>
       <c r="L38" t="n">
         <v>1176.26650377405</v>
       </c>
       <c r="M38" t="n">
-        <v>1431.710335348188</v>
+        <v>1742.237953017009</v>
       </c>
       <c r="N38" t="n">
-        <v>1695.901323554332</v>
+        <v>2006.428941223153</v>
       </c>
       <c r="O38" t="n">
         <v>2242.561738564346</v>
@@ -7217,7 +7217,7 @@
         <v>1908.602805324366</v>
       </c>
       <c r="Y38" t="n">
-        <v>1665.576007108263</v>
+        <v>1665.576007108262</v>
       </c>
     </row>
     <row r="39">
@@ -7239,7 +7239,7 @@
         <v>475.1013659734989</v>
       </c>
       <c r="F39" t="n">
-        <v>328.5668080003838</v>
+        <v>328.5668080003839</v>
       </c>
       <c r="G39" t="n">
         <v>191.3391358172531</v>
@@ -7248,10 +7248,10 @@
         <v>92.48729593459854</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94096893601661</v>
+        <v>53.9409689360166</v>
       </c>
       <c r="J39" t="n">
-        <v>192.3907614399509</v>
+        <v>192.3907614399508</v>
       </c>
       <c r="K39" t="n">
         <v>555.6443519024861</v>
@@ -7260,13 +7260,13 @@
         <v>1105.488028843562</v>
       </c>
       <c r="M39" t="n">
-        <v>1424.626209428958</v>
+        <v>1338.060873910827</v>
       </c>
       <c r="N39" t="n">
-        <v>1677.763210578802</v>
+        <v>1993.04135153234</v>
       </c>
       <c r="O39" t="n">
-        <v>1887.114317104853</v>
+        <v>2202.392458058391</v>
       </c>
       <c r="P39" t="n">
         <v>2351.082111521847</v>
@@ -7306,55 +7306,55 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>499.6019312162169</v>
+        <v>499.6019312162166</v>
       </c>
       <c r="C40" t="n">
-        <v>330.6657482883101</v>
+        <v>378.612280748233</v>
       </c>
       <c r="D40" t="n">
-        <v>327.6616426356821</v>
+        <v>375.6081750956051</v>
       </c>
       <c r="E40" t="n">
-        <v>326.8610828129968</v>
+        <v>227.695081513212</v>
       </c>
       <c r="F40" t="n">
-        <v>326.8610828129968</v>
+        <v>80.80513401530166</v>
       </c>
       <c r="G40" t="n">
-        <v>158.4334180525682</v>
+        <v>59.49000301458091</v>
       </c>
       <c r="H40" t="n">
-        <v>59.14751343128459</v>
+        <v>53.9409689360166</v>
       </c>
       <c r="I40" t="n">
-        <v>59.14751343128459</v>
+        <v>53.9409689360166</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94096893601661</v>
+        <v>53.9409689360166</v>
       </c>
       <c r="K40" t="n">
         <v>175.39211710127</v>
       </c>
       <c r="L40" t="n">
-        <v>386.3342071889391</v>
+        <v>386.334207188939</v>
       </c>
       <c r="M40" t="n">
-        <v>619.1321880174387</v>
+        <v>619.1321880174386</v>
       </c>
       <c r="N40" t="n">
-        <v>851.8293696127614</v>
+        <v>851.8293696127612</v>
       </c>
       <c r="O40" t="n">
         <v>1050.746584431784</v>
       </c>
       <c r="P40" t="n">
-        <v>1197.433943491319</v>
+        <v>1197.433943491318</v>
       </c>
       <c r="Q40" t="n">
-        <v>1215.557587343994</v>
+        <v>1215.557587343993</v>
       </c>
       <c r="R40" t="n">
-        <v>1215.557587343994</v>
+        <v>1215.557587343993</v>
       </c>
       <c r="S40" t="n">
         <v>1158.352459338911</v>
@@ -7363,19 +7363,19 @@
         <v>1080.60138472706</v>
       </c>
       <c r="U40" t="n">
-        <v>938.5715155323126</v>
+        <v>938.5715155323121</v>
       </c>
       <c r="V40" t="n">
-        <v>830.9995610861334</v>
+        <v>830.9995610861331</v>
       </c>
       <c r="W40" t="n">
-        <v>688.6949248088806</v>
+        <v>688.6949248088803</v>
       </c>
       <c r="X40" t="n">
-        <v>607.8179076705711</v>
+        <v>607.8179076705708</v>
       </c>
       <c r="Y40" t="n">
-        <v>534.1378622867488</v>
+        <v>534.1378622867485</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1426.088700803849</v>
+        <v>1426.088700803848</v>
       </c>
       <c r="C41" t="n">
-        <v>1204.238717623145</v>
+        <v>1204.238717623144</v>
       </c>
       <c r="D41" t="n">
-        <v>993.0855527761024</v>
+        <v>993.0855527761016</v>
       </c>
       <c r="E41" t="n">
-        <v>754.409833937566</v>
+        <v>754.4098339375653</v>
       </c>
       <c r="F41" t="n">
-        <v>490.5364629076662</v>
+        <v>490.5364629076656</v>
       </c>
       <c r="G41" t="n">
-        <v>220.9606665217257</v>
+        <v>220.9606665217256</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94096893601661</v>
+        <v>53.94096893601658</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94096893601661</v>
+        <v>53.94096893601658</v>
       </c>
       <c r="J41" t="n">
-        <v>108.4035068467936</v>
+        <v>275.8091558671466</v>
       </c>
       <c r="K41" t="n">
-        <v>266.986506945956</v>
+        <v>480.7700273106892</v>
       </c>
       <c r="L41" t="n">
-        <v>881.5818008100476</v>
+        <v>681.880718769835</v>
       </c>
       <c r="M41" t="n">
-        <v>1549.101291393253</v>
+        <v>937.324550343973</v>
       </c>
       <c r="N41" t="n">
-        <v>2216.620781976459</v>
+        <v>1604.844040927178</v>
       </c>
       <c r="O41" t="n">
-        <v>2452.753579317652</v>
+        <v>2217.969017718489</v>
       </c>
       <c r="P41" t="n">
-        <v>2619.786457864059</v>
+        <v>2385.001896264896</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.04844680083</v>
+        <v>2672.455725954973</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.04844680083</v>
+        <v>2697.048446800829</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.04844680083</v>
+        <v>2697.048446800829</v>
       </c>
       <c r="T41" t="n">
-        <v>2631.109718285715</v>
+        <v>2631.109718285714</v>
       </c>
       <c r="U41" t="n">
-        <v>2524.562504920008</v>
+        <v>2524.562504920007</v>
       </c>
       <c r="V41" t="n">
-        <v>2340.612151336146</v>
+        <v>2340.612151336144</v>
       </c>
       <c r="W41" t="n">
-        <v>2134.956029825739</v>
+        <v>2134.956029825738</v>
       </c>
       <c r="X41" t="n">
-        <v>1908.602805324367</v>
+        <v>1908.602805324366</v>
       </c>
       <c r="Y41" t="n">
-        <v>1665.576007108263</v>
+        <v>1665.576007108262</v>
       </c>
     </row>
     <row r="42">
@@ -7482,31 +7482,31 @@
         <v>191.3391358172531</v>
       </c>
       <c r="H42" t="n">
-        <v>92.48729593459854</v>
+        <v>92.48729593459852</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94096893601661</v>
+        <v>53.94096893601658</v>
       </c>
       <c r="J42" t="n">
-        <v>67.56063645294611</v>
+        <v>192.3907614399508</v>
       </c>
       <c r="K42" t="n">
-        <v>168.9936422730285</v>
+        <v>555.6443519024861</v>
       </c>
       <c r="L42" t="n">
-        <v>718.8373192141039</v>
+        <v>738.3560869931368</v>
       </c>
       <c r="M42" t="n">
-        <v>1386.356809797309</v>
+        <v>1405.875577576342</v>
       </c>
       <c r="N42" t="n">
-        <v>2053.876300380515</v>
+        <v>1659.012578726186</v>
       </c>
       <c r="O42" t="n">
-        <v>2263.227406906566</v>
+        <v>1887.114317104853</v>
       </c>
       <c r="P42" t="n">
-        <v>2559.058626380338</v>
+        <v>2351.082111521847</v>
       </c>
       <c r="Q42" t="n">
         <v>2608.534525615434</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>106.4334486588141</v>
+        <v>253.5459824185217</v>
       </c>
       <c r="C43" t="n">
-        <v>84.60979949061496</v>
+        <v>231.7223332503226</v>
       </c>
       <c r="D43" t="n">
-        <v>81.60569383798703</v>
+        <v>228.7182275976947</v>
       </c>
       <c r="E43" t="n">
-        <v>80.80513401530172</v>
+        <v>227.9176677750095</v>
       </c>
       <c r="F43" t="n">
-        <v>80.80513401530172</v>
+        <v>227.9176677750095</v>
       </c>
       <c r="G43" t="n">
-        <v>59.49000301458094</v>
+        <v>206.6025367742887</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94096893601661</v>
+        <v>53.94096893601658</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94096893601661</v>
+        <v>53.94096893601658</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94096893601661</v>
+        <v>53.94096893601658</v>
       </c>
       <c r="K43" t="n">
         <v>175.39211710127</v>
       </c>
       <c r="L43" t="n">
-        <v>386.3342071889391</v>
+        <v>386.334207188939</v>
       </c>
       <c r="M43" t="n">
-        <v>619.1321880174387</v>
+        <v>619.1321880174386</v>
       </c>
       <c r="N43" t="n">
-        <v>851.8293696127614</v>
+        <v>851.8293696127612</v>
       </c>
       <c r="O43" t="n">
         <v>1050.746584431784</v>
       </c>
       <c r="P43" t="n">
-        <v>1197.433943491319</v>
+        <v>1197.433943491318</v>
       </c>
       <c r="Q43" t="n">
-        <v>1215.557587343994</v>
+        <v>1215.557587343993</v>
       </c>
       <c r="R43" t="n">
-        <v>1215.557587343994</v>
+        <v>1215.557587343993</v>
       </c>
       <c r="S43" t="n">
-        <v>1011.239925579203</v>
+        <v>1158.352459338911</v>
       </c>
       <c r="T43" t="n">
-        <v>933.4888509673523</v>
+        <v>1080.60138472706</v>
       </c>
       <c r="U43" t="n">
-        <v>791.4589817726047</v>
+        <v>791.4589817726043</v>
       </c>
       <c r="V43" t="n">
-        <v>536.7744935667179</v>
+        <v>584.9436122884382</v>
       </c>
       <c r="W43" t="n">
-        <v>394.469857289465</v>
+        <v>442.6389760111854</v>
       </c>
       <c r="X43" t="n">
-        <v>214.6494251131683</v>
+        <v>361.7619588728759</v>
       </c>
       <c r="Y43" t="n">
-        <v>140.969379729346</v>
+        <v>288.0819134890536</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1426.088700803849</v>
+        <v>1426.088700803848</v>
       </c>
       <c r="C44" t="n">
-        <v>1204.238717623145</v>
+        <v>1204.238717623144</v>
       </c>
       <c r="D44" t="n">
-        <v>993.0855527761025</v>
+        <v>993.0855527761014</v>
       </c>
       <c r="E44" t="n">
-        <v>754.4098339375664</v>
+        <v>754.4098339375651</v>
       </c>
       <c r="F44" t="n">
-        <v>490.5364629076666</v>
+        <v>490.5364629076654</v>
       </c>
       <c r="G44" t="n">
-        <v>220.9606665217257</v>
+        <v>220.9606665217256</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94096893601661</v>
+        <v>53.94096893601658</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94096893601661</v>
+        <v>53.94096893601658</v>
       </c>
       <c r="J44" t="n">
-        <v>108.4035068467936</v>
+        <v>275.8091558671466</v>
       </c>
       <c r="K44" t="n">
-        <v>561.6712099099581</v>
+        <v>408.1729004848579</v>
       </c>
       <c r="L44" t="n">
-        <v>1176.26650377405</v>
+        <v>706.4734396156911</v>
       </c>
       <c r="M44" t="n">
-        <v>1431.710335348188</v>
+        <v>961.9172711898291</v>
       </c>
       <c r="N44" t="n">
-        <v>1695.901323554332</v>
+        <v>1629.436761773034</v>
       </c>
       <c r="O44" t="n">
-        <v>2309.026300345643</v>
+        <v>2242.561738564345</v>
       </c>
       <c r="P44" t="n">
-        <v>2619.786457864059</v>
+        <v>2409.594617110752</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.04844680083</v>
+        <v>2697.048446800829</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.04844680083</v>
+        <v>2697.048446800829</v>
       </c>
       <c r="S44" t="n">
-        <v>2697.04844680083</v>
+        <v>2697.048446800829</v>
       </c>
       <c r="T44" t="n">
-        <v>2631.109718285716</v>
+        <v>2631.109718285714</v>
       </c>
       <c r="U44" t="n">
-        <v>2524.562504920008</v>
+        <v>2524.562504920007</v>
       </c>
       <c r="V44" t="n">
-        <v>2340.612151336145</v>
+        <v>2340.612151336144</v>
       </c>
       <c r="W44" t="n">
-        <v>2134.956029825739</v>
+        <v>2134.956029825737</v>
       </c>
       <c r="X44" t="n">
-        <v>1908.602805324367</v>
+        <v>1908.602805324365</v>
       </c>
       <c r="Y44" t="n">
-        <v>1665.576007108263</v>
+        <v>1665.576007108262</v>
       </c>
     </row>
     <row r="45">
@@ -7719,25 +7719,25 @@
         <v>191.3391358172531</v>
       </c>
       <c r="H45" t="n">
-        <v>92.48729593459854</v>
+        <v>92.48729593459852</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94096893601661</v>
+        <v>53.94096893601658</v>
       </c>
       <c r="J45" t="n">
-        <v>67.56063645294611</v>
+        <v>192.3907614399508</v>
       </c>
       <c r="K45" t="n">
-        <v>430.8142269154813</v>
+        <v>555.6443519024861</v>
       </c>
       <c r="L45" t="n">
-        <v>980.6579038565567</v>
+        <v>1105.488028843562</v>
       </c>
       <c r="M45" t="n">
-        <v>1213.230748923822</v>
+        <v>1338.060873910827</v>
       </c>
       <c r="N45" t="n">
-        <v>1466.367750073666</v>
+        <v>1591.197875060671</v>
       </c>
       <c r="O45" t="n">
         <v>1887.114317104853</v>
@@ -7780,55 +7780,55 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>499.6019312162169</v>
+        <v>253.5459824185218</v>
       </c>
       <c r="C46" t="n">
-        <v>477.7782820480178</v>
+        <v>231.7223332503227</v>
       </c>
       <c r="D46" t="n">
-        <v>375.6081750956052</v>
+        <v>81.60569383798693</v>
       </c>
       <c r="E46" t="n">
-        <v>227.6950815132121</v>
+        <v>80.80513401530165</v>
       </c>
       <c r="F46" t="n">
-        <v>80.80513401530172</v>
+        <v>80.80513401530165</v>
       </c>
       <c r="G46" t="n">
-        <v>59.49000301458094</v>
+        <v>59.49000301458089</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94096893601661</v>
+        <v>53.94096893601658</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94096893601661</v>
+        <v>53.94096893601658</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94096893601661</v>
+        <v>53.94096893601658</v>
       </c>
       <c r="K46" t="n">
         <v>175.39211710127</v>
       </c>
       <c r="L46" t="n">
-        <v>386.3342071889391</v>
+        <v>386.334207188939</v>
       </c>
       <c r="M46" t="n">
-        <v>619.1321880174387</v>
+        <v>619.1321880174386</v>
       </c>
       <c r="N46" t="n">
-        <v>851.8293696127614</v>
+        <v>851.8293696127612</v>
       </c>
       <c r="O46" t="n">
         <v>1050.746584431784</v>
       </c>
       <c r="P46" t="n">
-        <v>1197.433943491319</v>
+        <v>1197.433943491318</v>
       </c>
       <c r="Q46" t="n">
-        <v>1215.557587343994</v>
+        <v>1215.557587343993</v>
       </c>
       <c r="R46" t="n">
-        <v>1215.557587343994</v>
+        <v>1215.557587343993</v>
       </c>
       <c r="S46" t="n">
         <v>1158.352459338911</v>
@@ -7837,19 +7837,19 @@
         <v>1080.60138472706</v>
       </c>
       <c r="U46" t="n">
-        <v>938.5715155323126</v>
+        <v>938.5715155323121</v>
       </c>
       <c r="V46" t="n">
-        <v>830.9995610861334</v>
+        <v>830.9995610861331</v>
       </c>
       <c r="W46" t="n">
-        <v>688.6949248088806</v>
+        <v>688.6949248088803</v>
       </c>
       <c r="X46" t="n">
-        <v>607.8179076705711</v>
+        <v>460.7053739108629</v>
       </c>
       <c r="Y46" t="n">
-        <v>534.1378622867488</v>
+        <v>387.0253285270406</v>
       </c>
     </row>
   </sheetData>
@@ -8687,19 +8687,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>205.6616725415531</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>245.4736880914239</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>316.7584581145763</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -8708,10 +8708,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>40.87528770545097</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,25 +8769,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>188.7741878393841</v>
+        <v>305.1594031852845</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>348.6959764366764</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>327.9241016057887</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8924,16 +8924,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>205.6616725415531</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>25.77174297493121</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>40.87528770545097</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9012,16 +9012,16 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>348.6959764366763</v>
       </c>
       <c r="N15" t="n">
-        <v>327.9241016057887</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>158.5409800426453</v>
       </c>
       <c r="P15" t="n">
-        <v>179.3128548735328</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9161,10 +9161,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>205.6616725415531</v>
+        <v>217.1320811571294</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9176,16 +9176,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>345.1000650488708</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>40.87528770545097</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,28 +9240,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>95.08211544943484</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>348.6959764366763</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>327.9241016057886</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>154.1021656121833</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9398,10 +9398,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>4.817090497225117</v>
       </c>
       <c r="K20" t="n">
-        <v>205.6616725415531</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>345.1000650488708</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>40.87528770545097</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,25 +9477,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>314.8652231797935</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>327.9241016057887</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>179.3128548735328</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9635,13 +9635,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>65.67867183651924</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9650,16 +9650,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>40.22611509975522</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>40.875287705451</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9729,13 +9729,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>1.484829832822868</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>136.1625669318799</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9890,13 +9890,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>228.3846565366432</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>59.28804136456912</v>
       </c>
       <c r="R26" t="n">
-        <v>40.87528770545097</v>
+        <v>40.875287705451</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9966,7 +9966,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>87.43973284659603</v>
+        <v>87.43973284659654</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>50.23000680047018</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10124,16 +10124,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>228.3846565366428</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>40.87528770545097</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,7 +10191,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10200,10 +10200,10 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>87.43973284659674</v>
       </c>
       <c r="O30" t="n">
-        <v>351.9049698591749</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10355,22 +10355,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>387.1936682704672</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>228.3846565366428</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>40.87528770545097</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10434,13 +10434,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>87.43973284659666</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>87.43973284659603</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>26.48409644590944</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>416.2380394030981</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>407.4025276535968</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>240.43015147843</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>40.87528770545097</v>
+        <v>40.875287705451</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10677,7 +10677,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>87.43973284659648</v>
+        <v>213.530768187006</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10829,13 +10829,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>313.6642602715365</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>313.6642602715366</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>40.87528770545097</v>
+        <v>40.875287705451</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10908,16 +10908,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>87.4397328465966</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>405.9025014865343</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11057,31 +11057,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>26.4840964459101</v>
+        <v>73.33043113720336</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>416.2380394030984</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>407.4025276535971</v>
+        <v>407.4025276535969</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>40.87528770545097</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,28 +11136,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>439.3400459756971</v>
+        <v>439.3400459756969</v>
       </c>
       <c r="N42" t="n">
-        <v>418.5681711448095</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>18.9400321743594</v>
       </c>
       <c r="P42" t="n">
-        <v>148.6278444548642</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,31 +11294,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>98.17156330473478</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>407.4025276535969</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>145.1790696686957</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>40.87528770545097</v>
+        <v>40.875287705451</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11388,7 +11388,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>213.5307681870057</v>
+        <v>87.43973284659705</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>303.3026304363736</v>
+        <v>238.746529185219</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>275.251830393576</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>327.4448345146045</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>333.0902356170842</v>
       </c>
       <c r="H11" t="n">
-        <v>119.1476408294739</v>
+        <v>231.5596978048558</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>66.21019719500376</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>171.6919384270541</v>
       </c>
       <c r="V11" t="n">
-        <v>248.321047243028</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>290.2998894513621</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>181.7057659073028</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23504,16 +23504,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>327.4448345146045</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>231.5596978048557</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>23.81896975173338</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>66.21019719500373</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>131.4895384249673</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>56.07219724534632</v>
       </c>
       <c r="V14" t="n">
         <v>248.3210472430279</v>
       </c>
       <c r="W14" t="n">
-        <v>269.8097574903061</v>
+        <v>269.809757490306</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>179.8983226496898</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>179.8983226496893</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>179.8983226496896</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -24029,7 +24029,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>179.8983226496894</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24850,7 +24850,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>1.35003119794419e-12</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>712822.9727887267</v>
+        <v>712822.9727887268</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>793248.53794882</v>
+        <v>793248.5379488203</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>793248.5379488203</v>
+        <v>793248.5379488202</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>816213.4029860437</v>
+        <v>816213.4029860436</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>858882.68748815</v>
+        <v>858882.6874881501</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>858882.68748815</v>
+        <v>858882.6874881501</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>858882.68748815</v>
+        <v>858882.6874881501</v>
       </c>
     </row>
     <row r="13">
@@ -26317,43 +26317,43 @@
         <v>696384.8879094826</v>
       </c>
       <c r="D2" t="n">
-        <v>696384.8879094826</v>
+        <v>696384.8879094828</v>
       </c>
       <c r="E2" t="n">
+        <v>609756.1056674081</v>
+      </c>
+      <c r="F2" t="n">
         <v>609756.1056674082</v>
       </c>
-      <c r="F2" t="n">
-        <v>609756.1056674076</v>
-      </c>
       <c r="G2" t="n">
-        <v>685713.5838741635</v>
+        <v>685713.5838741636</v>
       </c>
       <c r="H2" t="n">
-        <v>685713.583874163</v>
+        <v>685713.5838741636</v>
       </c>
       <c r="I2" t="n">
-        <v>697885.5043846414</v>
+        <v>697885.5043846413</v>
       </c>
       <c r="J2" t="n">
         <v>697885.5043846399</v>
       </c>
       <c r="K2" t="n">
-        <v>697885.50438464</v>
+        <v>697885.5043846397</v>
       </c>
       <c r="L2" t="n">
-        <v>697885.5043846392</v>
+        <v>697885.504384639</v>
       </c>
       <c r="M2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="N2" t="n">
         <v>697885.5043846411</v>
       </c>
       <c r="O2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.5043846412</v>
       </c>
       <c r="P2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.5043846411</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>793631.672415043</v>
+        <v>793631.6724150429</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="G3" t="n">
         <v>63544.96898168554</v>
@@ -26384,7 +26384,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>12327.03098776751</v>
+        <v>12327.03098776748</v>
       </c>
       <c r="J3" t="n">
         <v>75688.18005323116</v>
@@ -26393,7 +26393,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>63544.96898168554</v>
+        <v>63544.96898168557</v>
       </c>
       <c r="M3" t="n">
         <v>137355.3289379699</v>
@@ -26427,7 +26427,7 @@
         <v>154325.0722680948</v>
       </c>
       <c r="F4" t="n">
-        <v>154325.0722680948</v>
+        <v>154325.0722680949</v>
       </c>
       <c r="G4" t="n">
         <v>205135.3026775318</v>
@@ -26451,7 +26451,7 @@
         <v>208992.6487667407</v>
       </c>
       <c r="N4" t="n">
-        <v>208992.6487667407</v>
+        <v>208992.6487667408</v>
       </c>
       <c r="O4" t="n">
         <v>208992.6487667407</v>
@@ -26488,7 +26488,7 @@
         <v>63921.62594256461</v>
       </c>
       <c r="I5" t="n">
-        <v>66740.07008220107</v>
+        <v>66740.07008220105</v>
       </c>
       <c r="J5" t="n">
         <v>77650.54597770231</v>
@@ -26500,7 +26500,7 @@
         <v>77650.54597770231</v>
       </c>
       <c r="M5" t="n">
-        <v>68321.30794187219</v>
+        <v>68321.30794187218</v>
       </c>
       <c r="N5" t="n">
         <v>68321.30794187219</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>221108.0379136622</v>
+        <v>221103.6243357941</v>
       </c>
       <c r="C6" t="n">
-        <v>221108.0379136621</v>
+        <v>221103.624335794</v>
       </c>
       <c r="D6" t="n">
-        <v>221108.0379136621</v>
+        <v>221103.6243357942</v>
       </c>
       <c r="E6" t="n">
-        <v>-395444.5624616425</v>
+        <v>-395703.7665755168</v>
       </c>
       <c r="F6" t="n">
-        <v>398187.1099533999</v>
+        <v>397927.9058395262</v>
       </c>
       <c r="G6" t="n">
-        <v>353111.6862723814</v>
+        <v>353075.8865061742</v>
       </c>
       <c r="H6" t="n">
-        <v>416656.6552540665</v>
+        <v>416620.8554878598</v>
       </c>
       <c r="I6" t="n">
-        <v>407926.1952794455</v>
+        <v>407926.1952794454</v>
       </c>
       <c r="J6" t="n">
         <v>343692.0439126198</v>
       </c>
       <c r="K6" t="n">
-        <v>419380.2239658511</v>
+        <v>419380.2239658508</v>
       </c>
       <c r="L6" t="n">
-        <v>355835.2549841647</v>
+        <v>355835.2549841644</v>
       </c>
       <c r="M6" t="n">
-        <v>283216.218738058</v>
+        <v>283216.2187380581</v>
       </c>
       <c r="N6" t="n">
         <v>420571.5476760281</v>
       </c>
       <c r="O6" t="n">
-        <v>420571.5476760278</v>
+        <v>420571.5476760282</v>
       </c>
       <c r="P6" t="n">
-        <v>420571.5476760278</v>
+        <v>420571.5476760281</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="F2" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="G2" t="n">
         <v>158.8624224542139</v>
@@ -26707,10 +26707,10 @@
         <v>158.8624224542139</v>
       </c>
       <c r="J2" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="K2" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="L2" t="n">
         <v>79.43121122710694</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>691.8460543973006</v>
+        <v>691.8460543973005</v>
       </c>
       <c r="F3" t="n">
-        <v>691.8460543973006</v>
+        <v>691.8460543973005</v>
       </c>
       <c r="G3" t="n">
-        <v>691.8460543973006</v>
+        <v>691.8460543973005</v>
       </c>
       <c r="H3" t="n">
-        <v>691.8460543973006</v>
+        <v>691.8460543973005</v>
       </c>
       <c r="I3" t="n">
-        <v>691.8460543973006</v>
+        <v>691.8460543973005</v>
       </c>
       <c r="J3" t="n">
-        <v>691.8460543973006</v>
+        <v>691.8460543973005</v>
       </c>
       <c r="K3" t="n">
-        <v>691.8460543973006</v>
+        <v>691.8460543973005</v>
       </c>
       <c r="L3" t="n">
-        <v>691.8460543973006</v>
+        <v>691.8460543973005</v>
       </c>
       <c r="M3" t="n">
-        <v>691.8460543973006</v>
+        <v>691.8460543973005</v>
       </c>
       <c r="N3" t="n">
-        <v>691.8460543973006</v>
+        <v>691.8460543973005</v>
       </c>
       <c r="O3" t="n">
-        <v>691.8460543973006</v>
+        <v>691.8460543973005</v>
       </c>
       <c r="P3" t="n">
-        <v>691.8460543973006</v>
+        <v>691.8460543973005</v>
       </c>
     </row>
     <row r="4">
@@ -26808,10 +26808,10 @@
         <v>583.6180421611867</v>
       </c>
       <c r="I4" t="n">
-        <v>629.9740312999442</v>
+        <v>629.974031299944</v>
       </c>
       <c r="J4" t="n">
-        <v>919.2532811708801</v>
+        <v>919.25328117088</v>
       </c>
       <c r="K4" t="n">
         <v>919.25328117088</v>
@@ -26823,13 +26823,13 @@
         <v>674.2621117002074</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2621117002076</v>
+        <v>674.2621117002075</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2621117002076</v>
+        <v>674.2621117002072</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2621117002076</v>
+        <v>674.2621117002072</v>
       </c>
     </row>
   </sheetData>
@@ -26914,10 +26914,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="G2" t="n">
         <v>79.43121122710693</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="M2" t="n">
         <v>66.21019719500377</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>691.8460543973006</v>
+        <v>691.8460543973005</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27030,7 +27030,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>46.35598913875742</v>
+        <v>46.35598913875731</v>
       </c>
       <c r="J4" t="n">
         <v>289.2792498709359</v>
@@ -27151,10 +27151,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="L2" t="n">
         <v>79.43121122710693</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="C11" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="D11" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="E11" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="F11" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="G11" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="H11" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="I11" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="T11" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="U11" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="V11" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="W11" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="X11" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="Y11" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
     </row>
     <row r="12">
@@ -28166,10 +28166,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>67.11943691067931</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="C12" t="n">
-        <v>79.43121122710694</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -28181,13 +28181,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>38.16086372859611</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,19 +28214,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>7.763751642754556</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>18.085337769414</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="C13" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="D13" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="E13" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="F13" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="G13" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="H13" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="I13" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="J13" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="K13" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="L13" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="M13" t="n">
-        <v>79.43121122710744</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="N13" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710798</v>
       </c>
       <c r="O13" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="P13" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="Q13" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="R13" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="S13" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="T13" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="U13" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="V13" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="W13" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="X13" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="Y13" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="C14" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="D14" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="E14" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="F14" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="G14" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="H14" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="I14" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="T14" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="U14" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="V14" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="W14" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="X14" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="Y14" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710699</v>
       </c>
     </row>
     <row r="15">
@@ -28403,7 +28403,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -28418,13 +28418,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>59.35568526792471</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>79.43121122710696</v>
+        <v>18.08533776941384</v>
       </c>
       <c r="I15" t="n">
-        <v>38.16086372859611</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28451,13 +28451,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>7.763751642754542</v>
+        <v>7.763751642754556</v>
       </c>
       <c r="S15" t="n">
-        <v>79.43121122710696</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -28466,7 +28466,7 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="C16" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="D16" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="E16" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="F16" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="G16" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="H16" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="I16" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="J16" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="K16" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="L16" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="M16" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="N16" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="O16" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="P16" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="Q16" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="R16" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="S16" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="T16" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="U16" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="V16" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="W16" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="X16" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="Y16" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710699</v>
       </c>
     </row>
     <row r="17">
@@ -28582,7 +28582,7 @@
         <v>158.8624224542139</v>
       </c>
       <c r="I17" t="n">
-        <v>103.2501809788403</v>
+        <v>103.2501809788404</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28658,7 +28658,7 @@
         <v>135.8553954612995</v>
       </c>
       <c r="H18" t="n">
-        <v>97.863321483828</v>
+        <v>97.86332148382802</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -28691,13 +28691,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>30.42400614836161</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>30.42400614836185</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -28770,25 +28770,25 @@
         <v>121.1971522780048</v>
       </c>
       <c r="S19" t="n">
-        <v>109.8970682559718</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="W19" t="n">
-        <v>158.8624224542139</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>158.8624224542139</v>
       </c>
       <c r="Y19" t="n">
-        <v>158.8624224542139</v>
+        <v>109.8970682559717</v>
       </c>
     </row>
     <row r="20">
@@ -28819,7 +28819,7 @@
         <v>158.8624224542139</v>
       </c>
       <c r="I20" t="n">
-        <v>103.2501809788403</v>
+        <v>103.2501809788404</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28883,10 +28883,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>128.1185378810653</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -28895,10 +28895,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>97.863321483828</v>
+        <v>97.86332148382802</v>
       </c>
       <c r="I21" t="n">
-        <v>38.16086372859611</v>
+        <v>8.634321154260459</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28956,7 +28956,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="C22" t="n">
         <v>158.8624224542139</v>
@@ -28974,13 +28974,13 @@
         <v>158.8624224542139</v>
       </c>
       <c r="H22" t="n">
-        <v>97.01511891133208</v>
+        <v>151.1349521598894</v>
       </c>
       <c r="I22" t="n">
         <v>117.9320036494506</v>
       </c>
       <c r="J22" t="n">
-        <v>5.154479050315302</v>
+        <v>5.154479050315317</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>121.1971522780048</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>67.07731902944721</v>
+      </c>
+      <c r="U22" t="n">
         <v>158.8624224542139</v>
-      </c>
-      <c r="T22" t="n">
-        <v>158.8624224542139</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>158.8624224542139</v>
       </c>
       <c r="W22" t="n">
-        <v>158.8624224542139</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>158.8624224542139</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>158.8624224542139</v>
       </c>
     </row>
     <row r="23">
@@ -29056,7 +29056,7 @@
         <v>158.8624224542139</v>
       </c>
       <c r="I23" t="n">
-        <v>103.2501809788403</v>
+        <v>103.2501809788404</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29129,10 +29129,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>76.48064880104511</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>76.48064880104513</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -29162,7 +29162,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>7.763751642754542</v>
+        <v>7.763751642754556</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -29199,7 +29199,7 @@
         <v>158.8624224542139</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -29211,13 +29211,13 @@
         <v>158.8624224542139</v>
       </c>
       <c r="H25" t="n">
-        <v>89.74113815400244</v>
+        <v>74.33970966768554</v>
       </c>
       <c r="I25" t="n">
         <v>117.9320036494506</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>5.154479050315317</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29244,16 +29244,16 @@
         <v>121.1971522780048</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="U25" t="n">
         <v>158.8624224542139</v>
       </c>
       <c r="V25" t="n">
-        <v>158.8624224542139</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>158.8624224542139</v>
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="C26" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="D26" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="E26" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="F26" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="G26" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="H26" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="I26" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="T26" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="U26" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="V26" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="W26" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="X26" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="Y26" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="C28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="D28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="E28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="F28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="G28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="H28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="I28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="J28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="K28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="L28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="M28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="N28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="O28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="P28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="Q28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="R28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="S28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="T28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="U28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="V28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="W28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="X28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="Y28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="C29" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="D29" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="E29" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="F29" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="G29" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="H29" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="I29" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="T29" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="U29" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="V29" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="W29" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="X29" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="Y29" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710691</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="C31" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="D31" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="E31" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="F31" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="G31" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="H31" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="I31" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="J31" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="K31" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="L31" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="M31" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="N31" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="O31" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="P31" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="Q31" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="R31" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="S31" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="T31" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="U31" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="V31" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="W31" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="X31" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="Y31" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710691</v>
       </c>
     </row>
     <row r="32">
@@ -29946,7 +29946,7 @@
         <v>79.43121122710694</v>
       </c>
       <c r="P34" t="n">
-        <v>79.43121122710764</v>
+        <v>79.43121122710767</v>
       </c>
       <c r="Q34" t="n">
         <v>79.43121122710694</v>
@@ -30004,7 +30004,7 @@
         <v>145.6414084221107</v>
       </c>
       <c r="I35" t="n">
-        <v>103.2501809788403</v>
+        <v>103.2501809788404</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30144,7 +30144,7 @@
         <v>145.6414084221107</v>
       </c>
       <c r="C37" t="n">
-        <v>47.68742753450327</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="D37" t="n">
         <v>145.6414084221107</v>
@@ -30165,7 +30165,7 @@
         <v>117.9320036494506</v>
       </c>
       <c r="J37" t="n">
-        <v>5.154479050315302</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30195,19 +30195,19 @@
         <v>145.6414084221107</v>
       </c>
       <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>52.84190658481936</v>
+      </c>
+      <c r="W37" t="n">
         <v>145.6414084221107</v>
       </c>
-      <c r="U37" t="n">
+      <c r="X37" t="n">
         <v>145.6414084221107</v>
-      </c>
-      <c r="V37" t="n">
-        <v>145.6414084221107</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>145.6414084221107</v>
@@ -30241,7 +30241,7 @@
         <v>145.6414084221107</v>
       </c>
       <c r="I38" t="n">
-        <v>103.2501809788403</v>
+        <v>103.2501809788404</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30381,28 +30381,28 @@
         <v>145.6414084221107</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>47.46706713532413</v>
       </c>
       <c r="D40" t="n">
         <v>145.6414084221107</v>
       </c>
       <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
         <v>145.6414084221107</v>
       </c>
-      <c r="F40" t="n">
-        <v>145.4210480229312</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
       <c r="H40" t="n">
-        <v>52.84190658481859</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="I40" t="n">
         <v>117.9320036494506</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>5.154479050315317</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30478,7 +30478,7 @@
         <v>145.6414084221107</v>
       </c>
       <c r="I41" t="n">
-        <v>103.2501809788403</v>
+        <v>103.2501809788404</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30633,13 +30633,13 @@
         <v>145.6414084221107</v>
       </c>
       <c r="H43" t="n">
-        <v>145.6414084221107</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>117.9320036494506</v>
       </c>
       <c r="J43" t="n">
-        <v>5.154479050315302</v>
+        <v>5.154479050315317</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30666,22 +30666,22 @@
         <v>121.1971522780048</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="T43" t="n">
         <v>145.6414084221107</v>
       </c>
       <c r="U43" t="n">
-        <v>145.6414084221107</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>47.68742753450363</v>
       </c>
       <c r="W43" t="n">
         <v>145.6414084221107</v>
       </c>
       <c r="X43" t="n">
-        <v>47.68742753450334</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="Y43" t="n">
         <v>145.6414084221107</v>
@@ -30715,7 +30715,7 @@
         <v>145.6414084221107</v>
       </c>
       <c r="I44" t="n">
-        <v>103.2501809788403</v>
+        <v>103.2501809788404</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30852,19 +30852,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>145.6414084221107</v>
+        <v>47.6874275345036</v>
       </c>
       <c r="C46" t="n">
         <v>145.6414084221107</v>
       </c>
       <c r="D46" t="n">
-        <v>47.46706713532383</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>145.6414084221107</v>
@@ -30876,7 +30876,7 @@
         <v>117.9320036494506</v>
       </c>
       <c r="J46" t="n">
-        <v>5.154479050315302</v>
+        <v>5.154479050315317</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30918,7 +30918,7 @@
         <v>145.6414084221107</v>
       </c>
       <c r="X46" t="n">
-        <v>145.6414084221107</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>145.6414084221107</v>
@@ -31750,46 +31750,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.78129067094392</v>
+        <v>2.781290670943919</v>
       </c>
       <c r="H11" t="n">
         <v>28.48389308380442</v>
       </c>
       <c r="I11" t="n">
-        <v>107.2257085915656</v>
+        <v>107.2257085915655</v>
       </c>
       <c r="J11" t="n">
         <v>236.0585690830267</v>
       </c>
       <c r="K11" t="n">
-        <v>353.7906031840829</v>
+        <v>353.7906031840828</v>
       </c>
       <c r="L11" t="n">
-        <v>438.908527554983</v>
+        <v>438.9085275549829</v>
       </c>
       <c r="M11" t="n">
-        <v>488.3703055243819</v>
+        <v>488.3703055243818</v>
       </c>
       <c r="N11" t="n">
-        <v>496.2726476432014</v>
+        <v>496.2726476432013</v>
       </c>
       <c r="O11" t="n">
         <v>468.6161885340027</v>
       </c>
       <c r="P11" t="n">
-        <v>399.9530750950747</v>
+        <v>399.9530750950746</v>
       </c>
       <c r="Q11" t="n">
         <v>300.3481029418954</v>
       </c>
       <c r="R11" t="n">
-        <v>174.7102501086812</v>
+        <v>174.7102501086811</v>
       </c>
       <c r="S11" t="n">
         <v>63.37866116413463</v>
       </c>
       <c r="T11" t="n">
-        <v>12.17509991205702</v>
+        <v>12.17509991205701</v>
       </c>
       <c r="U11" t="n">
         <v>0.2225032536755135</v>
@@ -31835,7 +31835,7 @@
         <v>14.37212275266845</v>
       </c>
       <c r="I12" t="n">
-        <v>51.23576912281897</v>
+        <v>51.23576912281896</v>
       </c>
       <c r="J12" t="n">
         <v>140.5948665827571</v>
@@ -31844,34 +31844,34 @@
         <v>240.2990206108058</v>
       </c>
       <c r="L12" t="n">
-        <v>323.1116879522488</v>
+        <v>323.1116879522487</v>
       </c>
       <c r="M12" t="n">
-        <v>377.0560996465288</v>
+        <v>377.0560996465287</v>
       </c>
       <c r="N12" t="n">
-        <v>387.0356526387314</v>
+        <v>387.0356526387313</v>
       </c>
       <c r="O12" t="n">
-        <v>354.0620086121733</v>
+        <v>354.0620086121732</v>
       </c>
       <c r="P12" t="n">
-        <v>284.1659765693366</v>
+        <v>284.1659765693365</v>
       </c>
       <c r="Q12" t="n">
         <v>189.9574298790475</v>
       </c>
       <c r="R12" t="n">
-        <v>92.39408250988859</v>
+        <v>92.39408250988858</v>
       </c>
       <c r="S12" t="n">
-        <v>27.64120792804308</v>
+        <v>27.64120792804307</v>
       </c>
       <c r="T12" t="n">
-        <v>5.998174754633198</v>
+        <v>5.998174754633197</v>
       </c>
       <c r="U12" t="n">
-        <v>0.09790274354678787</v>
+        <v>0.09790274354678784</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31914,25 +31914,25 @@
         <v>11.09222034755017</v>
       </c>
       <c r="I13" t="n">
-        <v>37.51847127780772</v>
+        <v>37.51847127780771</v>
       </c>
       <c r="J13" t="n">
-        <v>88.20470106635747</v>
+        <v>88.20470106635746</v>
       </c>
       <c r="K13" t="n">
-        <v>144.9474192655328</v>
+        <v>144.9474192655327</v>
       </c>
       <c r="L13" t="n">
         <v>185.4827930100566</v>
       </c>
       <c r="M13" t="n">
-        <v>195.5655986225025</v>
+        <v>195.5655986225024</v>
       </c>
       <c r="N13" t="n">
         <v>190.915485797865</v>
       </c>
       <c r="O13" t="n">
-        <v>176.341351701135</v>
+        <v>176.3413517011349</v>
       </c>
       <c r="P13" t="n">
         <v>150.8904902901915</v>
@@ -31947,10 +31947,10 @@
         <v>21.74211288982991</v>
       </c>
       <c r="T13" t="n">
-        <v>5.330617140438216</v>
+        <v>5.330617140438215</v>
       </c>
       <c r="U13" t="n">
-        <v>0.06805043158006242</v>
+        <v>0.06805043158006241</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,46 +31987,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.78129067094392</v>
+        <v>2.781290670943919</v>
       </c>
       <c r="H14" t="n">
         <v>28.48389308380442</v>
       </c>
       <c r="I14" t="n">
-        <v>107.2257085915656</v>
+        <v>107.2257085915655</v>
       </c>
       <c r="J14" t="n">
         <v>236.0585690830267</v>
       </c>
       <c r="K14" t="n">
-        <v>353.7906031840829</v>
+        <v>353.7906031840828</v>
       </c>
       <c r="L14" t="n">
-        <v>438.908527554983</v>
+        <v>438.9085275549829</v>
       </c>
       <c r="M14" t="n">
-        <v>488.3703055243819</v>
+        <v>488.3703055243818</v>
       </c>
       <c r="N14" t="n">
-        <v>496.2726476432014</v>
+        <v>496.2726476432013</v>
       </c>
       <c r="O14" t="n">
         <v>468.6161885340027</v>
       </c>
       <c r="P14" t="n">
-        <v>399.9530750950747</v>
+        <v>399.9530750950746</v>
       </c>
       <c r="Q14" t="n">
         <v>300.3481029418954</v>
       </c>
       <c r="R14" t="n">
-        <v>174.7102501086812</v>
+        <v>174.7102501086811</v>
       </c>
       <c r="S14" t="n">
         <v>63.37866116413463</v>
       </c>
       <c r="T14" t="n">
-        <v>12.17509991205702</v>
+        <v>12.17509991205701</v>
       </c>
       <c r="U14" t="n">
         <v>0.2225032536755135</v>
@@ -32072,7 +32072,7 @@
         <v>14.37212275266845</v>
       </c>
       <c r="I15" t="n">
-        <v>51.23576912281897</v>
+        <v>51.23576912281896</v>
       </c>
       <c r="J15" t="n">
         <v>140.5948665827571</v>
@@ -32081,34 +32081,34 @@
         <v>240.2990206108058</v>
       </c>
       <c r="L15" t="n">
-        <v>323.1116879522488</v>
+        <v>323.1116879522487</v>
       </c>
       <c r="M15" t="n">
-        <v>377.0560996465288</v>
+        <v>377.0560996465287</v>
       </c>
       <c r="N15" t="n">
-        <v>387.0356526387314</v>
+        <v>387.0356526387313</v>
       </c>
       <c r="O15" t="n">
-        <v>354.0620086121733</v>
+        <v>354.0620086121732</v>
       </c>
       <c r="P15" t="n">
-        <v>284.1659765693366</v>
+        <v>284.1659765693365</v>
       </c>
       <c r="Q15" t="n">
         <v>189.9574298790475</v>
       </c>
       <c r="R15" t="n">
-        <v>92.39408250988859</v>
+        <v>92.39408250988858</v>
       </c>
       <c r="S15" t="n">
-        <v>27.64120792804308</v>
+        <v>27.64120792804307</v>
       </c>
       <c r="T15" t="n">
-        <v>5.998174754633198</v>
+        <v>5.998174754633197</v>
       </c>
       <c r="U15" t="n">
-        <v>0.09790274354678787</v>
+        <v>0.09790274354678784</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32151,25 +32151,25 @@
         <v>11.09222034755017</v>
       </c>
       <c r="I16" t="n">
-        <v>37.51847127780772</v>
+        <v>37.51847127780771</v>
       </c>
       <c r="J16" t="n">
-        <v>88.20470106635747</v>
+        <v>88.20470106635746</v>
       </c>
       <c r="K16" t="n">
-        <v>144.9474192655328</v>
+        <v>144.9474192655327</v>
       </c>
       <c r="L16" t="n">
         <v>185.4827930100566</v>
       </c>
       <c r="M16" t="n">
-        <v>195.5655986225025</v>
+        <v>195.5655986225024</v>
       </c>
       <c r="N16" t="n">
         <v>190.915485797865</v>
       </c>
       <c r="O16" t="n">
-        <v>176.341351701135</v>
+        <v>176.3413517011349</v>
       </c>
       <c r="P16" t="n">
         <v>150.8904902901915</v>
@@ -32184,10 +32184,10 @@
         <v>21.74211288982991</v>
       </c>
       <c r="T16" t="n">
-        <v>5.330617140438216</v>
+        <v>5.330617140438215</v>
       </c>
       <c r="U16" t="n">
-        <v>0.06805043158006242</v>
+        <v>0.06805043158006241</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,46 +32224,46 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.78129067094392</v>
+        <v>2.781290670943919</v>
       </c>
       <c r="H17" t="n">
         <v>28.48389308380442</v>
       </c>
       <c r="I17" t="n">
-        <v>107.2257085915656</v>
+        <v>107.2257085915655</v>
       </c>
       <c r="J17" t="n">
         <v>236.0585690830267</v>
       </c>
       <c r="K17" t="n">
-        <v>353.7906031840829</v>
+        <v>353.7906031840828</v>
       </c>
       <c r="L17" t="n">
-        <v>438.908527554983</v>
+        <v>438.9085275549829</v>
       </c>
       <c r="M17" t="n">
-        <v>488.3703055243819</v>
+        <v>488.3703055243818</v>
       </c>
       <c r="N17" t="n">
-        <v>496.2726476432014</v>
+        <v>496.2726476432013</v>
       </c>
       <c r="O17" t="n">
         <v>468.6161885340027</v>
       </c>
       <c r="P17" t="n">
-        <v>399.9530750950747</v>
+        <v>399.9530750950746</v>
       </c>
       <c r="Q17" t="n">
         <v>300.3481029418954</v>
       </c>
       <c r="R17" t="n">
-        <v>174.7102501086812</v>
+        <v>174.7102501086811</v>
       </c>
       <c r="S17" t="n">
         <v>63.37866116413463</v>
       </c>
       <c r="T17" t="n">
-        <v>12.17509991205702</v>
+        <v>12.17509991205701</v>
       </c>
       <c r="U17" t="n">
         <v>0.2225032536755135</v>
@@ -32309,7 +32309,7 @@
         <v>14.37212275266845</v>
       </c>
       <c r="I18" t="n">
-        <v>51.23576912281897</v>
+        <v>51.23576912281896</v>
       </c>
       <c r="J18" t="n">
         <v>140.5948665827571</v>
@@ -32318,34 +32318,34 @@
         <v>240.2990206108058</v>
       </c>
       <c r="L18" t="n">
-        <v>323.1116879522488</v>
+        <v>323.1116879522487</v>
       </c>
       <c r="M18" t="n">
-        <v>377.0560996465288</v>
+        <v>377.0560996465287</v>
       </c>
       <c r="N18" t="n">
-        <v>387.0356526387314</v>
+        <v>387.0356526387313</v>
       </c>
       <c r="O18" t="n">
-        <v>354.0620086121733</v>
+        <v>354.0620086121732</v>
       </c>
       <c r="P18" t="n">
-        <v>284.1659765693366</v>
+        <v>284.1659765693365</v>
       </c>
       <c r="Q18" t="n">
         <v>189.9574298790475</v>
       </c>
       <c r="R18" t="n">
-        <v>92.39408250988859</v>
+        <v>92.39408250988858</v>
       </c>
       <c r="S18" t="n">
-        <v>27.64120792804308</v>
+        <v>27.64120792804307</v>
       </c>
       <c r="T18" t="n">
-        <v>5.998174754633198</v>
+        <v>5.998174754633197</v>
       </c>
       <c r="U18" t="n">
-        <v>0.09790274354678787</v>
+        <v>0.09790274354678784</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32388,25 +32388,25 @@
         <v>11.09222034755017</v>
       </c>
       <c r="I19" t="n">
-        <v>37.51847127780772</v>
+        <v>37.51847127780771</v>
       </c>
       <c r="J19" t="n">
-        <v>88.20470106635747</v>
+        <v>88.20470106635746</v>
       </c>
       <c r="K19" t="n">
-        <v>144.9474192655328</v>
+        <v>144.9474192655327</v>
       </c>
       <c r="L19" t="n">
         <v>185.4827930100566</v>
       </c>
       <c r="M19" t="n">
-        <v>195.5655986225025</v>
+        <v>195.5655986225024</v>
       </c>
       <c r="N19" t="n">
         <v>190.915485797865</v>
       </c>
       <c r="O19" t="n">
-        <v>176.341351701135</v>
+        <v>176.3413517011349</v>
       </c>
       <c r="P19" t="n">
         <v>150.8904902901915</v>
@@ -32421,10 +32421,10 @@
         <v>21.74211288982991</v>
       </c>
       <c r="T19" t="n">
-        <v>5.330617140438216</v>
+        <v>5.330617140438215</v>
       </c>
       <c r="U19" t="n">
-        <v>0.06805043158006242</v>
+        <v>0.06805043158006241</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,46 +32461,46 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.78129067094392</v>
+        <v>2.781290670943919</v>
       </c>
       <c r="H20" t="n">
         <v>28.48389308380442</v>
       </c>
       <c r="I20" t="n">
-        <v>107.2257085915656</v>
+        <v>107.2257085915655</v>
       </c>
       <c r="J20" t="n">
         <v>236.0585690830267</v>
       </c>
       <c r="K20" t="n">
-        <v>353.7906031840829</v>
+        <v>353.7906031840828</v>
       </c>
       <c r="L20" t="n">
-        <v>438.908527554983</v>
+        <v>438.9085275549829</v>
       </c>
       <c r="M20" t="n">
-        <v>488.3703055243819</v>
+        <v>488.3703055243818</v>
       </c>
       <c r="N20" t="n">
-        <v>496.2726476432014</v>
+        <v>496.2726476432013</v>
       </c>
       <c r="O20" t="n">
         <v>468.6161885340027</v>
       </c>
       <c r="P20" t="n">
-        <v>399.9530750950747</v>
+        <v>399.9530750950746</v>
       </c>
       <c r="Q20" t="n">
         <v>300.3481029418954</v>
       </c>
       <c r="R20" t="n">
-        <v>174.7102501086812</v>
+        <v>174.7102501086811</v>
       </c>
       <c r="S20" t="n">
         <v>63.37866116413463</v>
       </c>
       <c r="T20" t="n">
-        <v>12.17509991205702</v>
+        <v>12.17509991205701</v>
       </c>
       <c r="U20" t="n">
         <v>0.2225032536755135</v>
@@ -32546,7 +32546,7 @@
         <v>14.37212275266845</v>
       </c>
       <c r="I21" t="n">
-        <v>51.23576912281897</v>
+        <v>51.23576912281896</v>
       </c>
       <c r="J21" t="n">
         <v>140.5948665827571</v>
@@ -32555,34 +32555,34 @@
         <v>240.2990206108058</v>
       </c>
       <c r="L21" t="n">
-        <v>323.1116879522488</v>
+        <v>323.1116879522487</v>
       </c>
       <c r="M21" t="n">
-        <v>377.0560996465288</v>
+        <v>377.0560996465287</v>
       </c>
       <c r="N21" t="n">
-        <v>387.0356526387314</v>
+        <v>387.0356526387313</v>
       </c>
       <c r="O21" t="n">
-        <v>354.0620086121733</v>
+        <v>354.0620086121732</v>
       </c>
       <c r="P21" t="n">
-        <v>284.1659765693366</v>
+        <v>284.1659765693365</v>
       </c>
       <c r="Q21" t="n">
         <v>189.9574298790475</v>
       </c>
       <c r="R21" t="n">
-        <v>92.39408250988859</v>
+        <v>92.39408250988858</v>
       </c>
       <c r="S21" t="n">
-        <v>27.64120792804308</v>
+        <v>27.64120792804307</v>
       </c>
       <c r="T21" t="n">
-        <v>5.998174754633198</v>
+        <v>5.998174754633197</v>
       </c>
       <c r="U21" t="n">
-        <v>0.09790274354678787</v>
+        <v>0.09790274354678784</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32625,25 +32625,25 @@
         <v>11.09222034755017</v>
       </c>
       <c r="I22" t="n">
-        <v>37.51847127780772</v>
+        <v>37.51847127780771</v>
       </c>
       <c r="J22" t="n">
-        <v>88.20470106635747</v>
+        <v>88.20470106635746</v>
       </c>
       <c r="K22" t="n">
-        <v>144.9474192655328</v>
+        <v>144.9474192655327</v>
       </c>
       <c r="L22" t="n">
         <v>185.4827930100566</v>
       </c>
       <c r="M22" t="n">
-        <v>195.5655986225025</v>
+        <v>195.5655986225024</v>
       </c>
       <c r="N22" t="n">
         <v>190.915485797865</v>
       </c>
       <c r="O22" t="n">
-        <v>176.341351701135</v>
+        <v>176.3413517011349</v>
       </c>
       <c r="P22" t="n">
         <v>150.8904902901915</v>
@@ -32658,10 +32658,10 @@
         <v>21.74211288982991</v>
       </c>
       <c r="T22" t="n">
-        <v>5.330617140438216</v>
+        <v>5.330617140438215</v>
       </c>
       <c r="U22" t="n">
-        <v>0.06805043158006242</v>
+        <v>0.06805043158006241</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,46 +32698,46 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.78129067094392</v>
+        <v>2.781290670943919</v>
       </c>
       <c r="H23" t="n">
         <v>28.48389308380442</v>
       </c>
       <c r="I23" t="n">
-        <v>107.2257085915656</v>
+        <v>107.2257085915655</v>
       </c>
       <c r="J23" t="n">
         <v>236.0585690830267</v>
       </c>
       <c r="K23" t="n">
-        <v>353.7906031840829</v>
+        <v>353.7906031840828</v>
       </c>
       <c r="L23" t="n">
-        <v>438.908527554983</v>
+        <v>438.9085275549829</v>
       </c>
       <c r="M23" t="n">
-        <v>488.3703055243819</v>
+        <v>488.3703055243818</v>
       </c>
       <c r="N23" t="n">
-        <v>496.2726476432014</v>
+        <v>496.2726476432013</v>
       </c>
       <c r="O23" t="n">
         <v>468.6161885340027</v>
       </c>
       <c r="P23" t="n">
-        <v>399.9530750950747</v>
+        <v>399.9530750950746</v>
       </c>
       <c r="Q23" t="n">
         <v>300.3481029418954</v>
       </c>
       <c r="R23" t="n">
-        <v>174.7102501086812</v>
+        <v>174.7102501086811</v>
       </c>
       <c r="S23" t="n">
         <v>63.37866116413463</v>
       </c>
       <c r="T23" t="n">
-        <v>12.17509991205702</v>
+        <v>12.17509991205701</v>
       </c>
       <c r="U23" t="n">
         <v>0.2225032536755135</v>
@@ -32783,7 +32783,7 @@
         <v>14.37212275266845</v>
       </c>
       <c r="I24" t="n">
-        <v>51.23576912281897</v>
+        <v>51.23576912281896</v>
       </c>
       <c r="J24" t="n">
         <v>140.5948665827571</v>
@@ -32792,34 +32792,34 @@
         <v>240.2990206108058</v>
       </c>
       <c r="L24" t="n">
-        <v>323.1116879522488</v>
+        <v>323.1116879522487</v>
       </c>
       <c r="M24" t="n">
-        <v>377.0560996465288</v>
+        <v>377.0560996465287</v>
       </c>
       <c r="N24" t="n">
-        <v>387.0356526387314</v>
+        <v>387.0356526387313</v>
       </c>
       <c r="O24" t="n">
-        <v>354.0620086121733</v>
+        <v>354.0620086121732</v>
       </c>
       <c r="P24" t="n">
-        <v>284.1659765693366</v>
+        <v>284.1659765693365</v>
       </c>
       <c r="Q24" t="n">
         <v>189.9574298790475</v>
       </c>
       <c r="R24" t="n">
-        <v>92.39408250988859</v>
+        <v>92.39408250988858</v>
       </c>
       <c r="S24" t="n">
-        <v>27.64120792804308</v>
+        <v>27.64120792804307</v>
       </c>
       <c r="T24" t="n">
-        <v>5.998174754633198</v>
+        <v>5.998174754633197</v>
       </c>
       <c r="U24" t="n">
-        <v>0.09790274354678787</v>
+        <v>0.09790274354678784</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32862,25 +32862,25 @@
         <v>11.09222034755017</v>
       </c>
       <c r="I25" t="n">
-        <v>37.51847127780772</v>
+        <v>37.51847127780771</v>
       </c>
       <c r="J25" t="n">
-        <v>88.20470106635747</v>
+        <v>88.20470106635746</v>
       </c>
       <c r="K25" t="n">
-        <v>144.9474192655328</v>
+        <v>144.9474192655327</v>
       </c>
       <c r="L25" t="n">
         <v>185.4827930100566</v>
       </c>
       <c r="M25" t="n">
-        <v>195.5655986225025</v>
+        <v>195.5655986225024</v>
       </c>
       <c r="N25" t="n">
         <v>190.915485797865</v>
       </c>
       <c r="O25" t="n">
-        <v>176.341351701135</v>
+        <v>176.3413517011349</v>
       </c>
       <c r="P25" t="n">
         <v>150.8904902901915</v>
@@ -32895,10 +32895,10 @@
         <v>21.74211288982991</v>
       </c>
       <c r="T25" t="n">
-        <v>5.330617140438216</v>
+        <v>5.330617140438215</v>
       </c>
       <c r="U25" t="n">
-        <v>0.06805043158006242</v>
+        <v>0.06805043158006241</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,46 +32935,46 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.78129067094392</v>
+        <v>2.781290670943919</v>
       </c>
       <c r="H26" t="n">
         <v>28.48389308380442</v>
       </c>
       <c r="I26" t="n">
-        <v>107.2257085915656</v>
+        <v>107.2257085915655</v>
       </c>
       <c r="J26" t="n">
         <v>236.0585690830267</v>
       </c>
       <c r="K26" t="n">
-        <v>353.7906031840829</v>
+        <v>353.7906031840828</v>
       </c>
       <c r="L26" t="n">
-        <v>438.908527554983</v>
+        <v>438.9085275549829</v>
       </c>
       <c r="M26" t="n">
-        <v>488.3703055243819</v>
+        <v>488.3703055243818</v>
       </c>
       <c r="N26" t="n">
-        <v>496.2726476432014</v>
+        <v>496.2726476432013</v>
       </c>
       <c r="O26" t="n">
         <v>468.6161885340027</v>
       </c>
       <c r="P26" t="n">
-        <v>399.9530750950747</v>
+        <v>399.9530750950746</v>
       </c>
       <c r="Q26" t="n">
         <v>300.3481029418954</v>
       </c>
       <c r="R26" t="n">
-        <v>174.7102501086812</v>
+        <v>174.7102501086811</v>
       </c>
       <c r="S26" t="n">
         <v>63.37866116413463</v>
       </c>
       <c r="T26" t="n">
-        <v>12.17509991205702</v>
+        <v>12.17509991205701</v>
       </c>
       <c r="U26" t="n">
         <v>0.2225032536755135</v>
@@ -33020,7 +33020,7 @@
         <v>14.37212275266845</v>
       </c>
       <c r="I27" t="n">
-        <v>51.23576912281897</v>
+        <v>51.23576912281896</v>
       </c>
       <c r="J27" t="n">
         <v>140.5948665827571</v>
@@ -33029,34 +33029,34 @@
         <v>240.2990206108058</v>
       </c>
       <c r="L27" t="n">
-        <v>323.1116879522488</v>
+        <v>323.1116879522487</v>
       </c>
       <c r="M27" t="n">
-        <v>377.0560996465288</v>
+        <v>377.0560996465287</v>
       </c>
       <c r="N27" t="n">
-        <v>387.0356526387314</v>
+        <v>387.0356526387313</v>
       </c>
       <c r="O27" t="n">
-        <v>354.0620086121733</v>
+        <v>354.0620086121732</v>
       </c>
       <c r="P27" t="n">
-        <v>284.1659765693366</v>
+        <v>284.1659765693365</v>
       </c>
       <c r="Q27" t="n">
         <v>189.9574298790475</v>
       </c>
       <c r="R27" t="n">
-        <v>92.39408250988859</v>
+        <v>92.39408250988858</v>
       </c>
       <c r="S27" t="n">
-        <v>27.64120792804308</v>
+        <v>27.64120792804307</v>
       </c>
       <c r="T27" t="n">
-        <v>5.998174754633198</v>
+        <v>5.998174754633197</v>
       </c>
       <c r="U27" t="n">
-        <v>0.09790274354678787</v>
+        <v>0.09790274354678784</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33099,25 +33099,25 @@
         <v>11.09222034755017</v>
       </c>
       <c r="I28" t="n">
-        <v>37.51847127780772</v>
+        <v>37.51847127780771</v>
       </c>
       <c r="J28" t="n">
-        <v>88.20470106635747</v>
+        <v>88.20470106635746</v>
       </c>
       <c r="K28" t="n">
-        <v>144.9474192655328</v>
+        <v>144.9474192655327</v>
       </c>
       <c r="L28" t="n">
         <v>185.4827930100566</v>
       </c>
       <c r="M28" t="n">
-        <v>195.5655986225025</v>
+        <v>195.5655986225024</v>
       </c>
       <c r="N28" t="n">
         <v>190.915485797865</v>
       </c>
       <c r="O28" t="n">
-        <v>176.341351701135</v>
+        <v>176.3413517011349</v>
       </c>
       <c r="P28" t="n">
         <v>150.8904902901915</v>
@@ -33132,10 +33132,10 @@
         <v>21.74211288982991</v>
       </c>
       <c r="T28" t="n">
-        <v>5.330617140438216</v>
+        <v>5.330617140438215</v>
       </c>
       <c r="U28" t="n">
-        <v>0.06805043158006242</v>
+        <v>0.06805043158006241</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,46 +33172,46 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.78129067094392</v>
+        <v>2.781290670943919</v>
       </c>
       <c r="H29" t="n">
         <v>28.48389308380442</v>
       </c>
       <c r="I29" t="n">
-        <v>107.2257085915656</v>
+        <v>107.2257085915655</v>
       </c>
       <c r="J29" t="n">
         <v>236.0585690830267</v>
       </c>
       <c r="K29" t="n">
-        <v>353.7906031840829</v>
+        <v>353.7906031840828</v>
       </c>
       <c r="L29" t="n">
-        <v>438.908527554983</v>
+        <v>438.9085275549829</v>
       </c>
       <c r="M29" t="n">
-        <v>488.3703055243819</v>
+        <v>488.3703055243818</v>
       </c>
       <c r="N29" t="n">
-        <v>496.2726476432014</v>
+        <v>496.2726476432013</v>
       </c>
       <c r="O29" t="n">
         <v>468.6161885340027</v>
       </c>
       <c r="P29" t="n">
-        <v>399.9530750950747</v>
+        <v>399.9530750950746</v>
       </c>
       <c r="Q29" t="n">
         <v>300.3481029418954</v>
       </c>
       <c r="R29" t="n">
-        <v>174.7102501086812</v>
+        <v>174.7102501086811</v>
       </c>
       <c r="S29" t="n">
         <v>63.37866116413463</v>
       </c>
       <c r="T29" t="n">
-        <v>12.17509991205702</v>
+        <v>12.17509991205701</v>
       </c>
       <c r="U29" t="n">
         <v>0.2225032536755135</v>
@@ -33257,7 +33257,7 @@
         <v>14.37212275266845</v>
       </c>
       <c r="I30" t="n">
-        <v>51.23576912281897</v>
+        <v>51.23576912281896</v>
       </c>
       <c r="J30" t="n">
         <v>140.5948665827571</v>
@@ -33266,34 +33266,34 @@
         <v>240.2990206108058</v>
       </c>
       <c r="L30" t="n">
-        <v>323.1116879522488</v>
+        <v>323.1116879522487</v>
       </c>
       <c r="M30" t="n">
-        <v>377.0560996465288</v>
+        <v>377.0560996465287</v>
       </c>
       <c r="N30" t="n">
-        <v>387.0356526387314</v>
+        <v>387.0356526387313</v>
       </c>
       <c r="O30" t="n">
-        <v>354.0620086121733</v>
+        <v>354.0620086121732</v>
       </c>
       <c r="P30" t="n">
-        <v>284.1659765693366</v>
+        <v>284.1659765693365</v>
       </c>
       <c r="Q30" t="n">
         <v>189.9574298790475</v>
       </c>
       <c r="R30" t="n">
-        <v>92.39408250988859</v>
+        <v>92.39408250988858</v>
       </c>
       <c r="S30" t="n">
-        <v>27.64120792804308</v>
+        <v>27.64120792804307</v>
       </c>
       <c r="T30" t="n">
-        <v>5.998174754633198</v>
+        <v>5.998174754633197</v>
       </c>
       <c r="U30" t="n">
-        <v>0.09790274354678787</v>
+        <v>0.09790274354678784</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33336,25 +33336,25 @@
         <v>11.09222034755017</v>
       </c>
       <c r="I31" t="n">
-        <v>37.51847127780772</v>
+        <v>37.51847127780771</v>
       </c>
       <c r="J31" t="n">
-        <v>88.20470106635747</v>
+        <v>88.20470106635746</v>
       </c>
       <c r="K31" t="n">
-        <v>144.9474192655328</v>
+        <v>144.9474192655327</v>
       </c>
       <c r="L31" t="n">
         <v>185.4827930100566</v>
       </c>
       <c r="M31" t="n">
-        <v>195.5655986225025</v>
+        <v>195.5655986225024</v>
       </c>
       <c r="N31" t="n">
         <v>190.915485797865</v>
       </c>
       <c r="O31" t="n">
-        <v>176.341351701135</v>
+        <v>176.3413517011349</v>
       </c>
       <c r="P31" t="n">
         <v>150.8904902901915</v>
@@ -33369,10 +33369,10 @@
         <v>21.74211288982991</v>
       </c>
       <c r="T31" t="n">
-        <v>5.330617140438216</v>
+        <v>5.330617140438215</v>
       </c>
       <c r="U31" t="n">
-        <v>0.06805043158006242</v>
+        <v>0.06805043158006241</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,46 +33409,46 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.78129067094392</v>
+        <v>2.781290670943919</v>
       </c>
       <c r="H32" t="n">
         <v>28.48389308380442</v>
       </c>
       <c r="I32" t="n">
-        <v>107.2257085915656</v>
+        <v>107.2257085915655</v>
       </c>
       <c r="J32" t="n">
         <v>236.0585690830267</v>
       </c>
       <c r="K32" t="n">
-        <v>353.7906031840829</v>
+        <v>353.7906031840828</v>
       </c>
       <c r="L32" t="n">
-        <v>438.908527554983</v>
+        <v>438.9085275549829</v>
       </c>
       <c r="M32" t="n">
-        <v>488.3703055243819</v>
+        <v>488.3703055243818</v>
       </c>
       <c r="N32" t="n">
-        <v>496.2726476432014</v>
+        <v>496.2726476432013</v>
       </c>
       <c r="O32" t="n">
         <v>468.6161885340027</v>
       </c>
       <c r="P32" t="n">
-        <v>399.9530750950747</v>
+        <v>399.9530750950746</v>
       </c>
       <c r="Q32" t="n">
         <v>300.3481029418954</v>
       </c>
       <c r="R32" t="n">
-        <v>174.7102501086812</v>
+        <v>174.7102501086811</v>
       </c>
       <c r="S32" t="n">
         <v>63.37866116413463</v>
       </c>
       <c r="T32" t="n">
-        <v>12.17509991205702</v>
+        <v>12.17509991205701</v>
       </c>
       <c r="U32" t="n">
         <v>0.2225032536755135</v>
@@ -33494,7 +33494,7 @@
         <v>14.37212275266845</v>
       </c>
       <c r="I33" t="n">
-        <v>51.23576912281897</v>
+        <v>51.23576912281896</v>
       </c>
       <c r="J33" t="n">
         <v>140.5948665827571</v>
@@ -33503,34 +33503,34 @@
         <v>240.2990206108058</v>
       </c>
       <c r="L33" t="n">
-        <v>323.1116879522488</v>
+        <v>323.1116879522487</v>
       </c>
       <c r="M33" t="n">
-        <v>377.0560996465288</v>
+        <v>377.0560996465287</v>
       </c>
       <c r="N33" t="n">
-        <v>387.0356526387314</v>
+        <v>387.0356526387313</v>
       </c>
       <c r="O33" t="n">
-        <v>354.0620086121733</v>
+        <v>354.0620086121732</v>
       </c>
       <c r="P33" t="n">
-        <v>284.1659765693366</v>
+        <v>284.1659765693365</v>
       </c>
       <c r="Q33" t="n">
         <v>189.9574298790475</v>
       </c>
       <c r="R33" t="n">
-        <v>92.39408250988859</v>
+        <v>92.39408250988858</v>
       </c>
       <c r="S33" t="n">
-        <v>27.64120792804308</v>
+        <v>27.64120792804307</v>
       </c>
       <c r="T33" t="n">
-        <v>5.998174754633198</v>
+        <v>5.998174754633197</v>
       </c>
       <c r="U33" t="n">
-        <v>0.09790274354678787</v>
+        <v>0.09790274354678784</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33573,25 +33573,25 @@
         <v>11.09222034755017</v>
       </c>
       <c r="I34" t="n">
-        <v>37.51847127780772</v>
+        <v>37.51847127780771</v>
       </c>
       <c r="J34" t="n">
-        <v>88.20470106635747</v>
+        <v>88.20470106635746</v>
       </c>
       <c r="K34" t="n">
-        <v>144.9474192655328</v>
+        <v>144.9474192655327</v>
       </c>
       <c r="L34" t="n">
         <v>185.4827930100566</v>
       </c>
       <c r="M34" t="n">
-        <v>195.5655986225025</v>
+        <v>195.5655986225024</v>
       </c>
       <c r="N34" t="n">
         <v>190.915485797865</v>
       </c>
       <c r="O34" t="n">
-        <v>176.341351701135</v>
+        <v>176.3413517011349</v>
       </c>
       <c r="P34" t="n">
         <v>150.8904902901915</v>
@@ -33606,10 +33606,10 @@
         <v>21.74211288982991</v>
       </c>
       <c r="T34" t="n">
-        <v>5.330617140438216</v>
+        <v>5.330617140438215</v>
       </c>
       <c r="U34" t="n">
-        <v>0.06805043158006242</v>
+        <v>0.06805043158006241</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,46 +33646,46 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.78129067094392</v>
+        <v>2.781290670943919</v>
       </c>
       <c r="H35" t="n">
         <v>28.48389308380442</v>
       </c>
       <c r="I35" t="n">
-        <v>107.2257085915656</v>
+        <v>107.2257085915655</v>
       </c>
       <c r="J35" t="n">
         <v>236.0585690830267</v>
       </c>
       <c r="K35" t="n">
-        <v>353.7906031840829</v>
+        <v>353.7906031840828</v>
       </c>
       <c r="L35" t="n">
-        <v>438.908527554983</v>
+        <v>438.9085275549829</v>
       </c>
       <c r="M35" t="n">
-        <v>488.3703055243819</v>
+        <v>488.3703055243818</v>
       </c>
       <c r="N35" t="n">
-        <v>496.2726476432014</v>
+        <v>496.2726476432013</v>
       </c>
       <c r="O35" t="n">
         <v>468.6161885340027</v>
       </c>
       <c r="P35" t="n">
-        <v>399.9530750950747</v>
+        <v>399.9530750950746</v>
       </c>
       <c r="Q35" t="n">
         <v>300.3481029418954</v>
       </c>
       <c r="R35" t="n">
-        <v>174.7102501086812</v>
+        <v>174.7102501086811</v>
       </c>
       <c r="S35" t="n">
         <v>63.37866116413463</v>
       </c>
       <c r="T35" t="n">
-        <v>12.17509991205702</v>
+        <v>12.17509991205701</v>
       </c>
       <c r="U35" t="n">
         <v>0.2225032536755135</v>
@@ -33731,7 +33731,7 @@
         <v>14.37212275266845</v>
       </c>
       <c r="I36" t="n">
-        <v>51.23576912281897</v>
+        <v>51.23576912281896</v>
       </c>
       <c r="J36" t="n">
         <v>140.5948665827571</v>
@@ -33740,34 +33740,34 @@
         <v>240.2990206108058</v>
       </c>
       <c r="L36" t="n">
-        <v>323.1116879522488</v>
+        <v>323.1116879522487</v>
       </c>
       <c r="M36" t="n">
-        <v>377.0560996465288</v>
+        <v>377.0560996465287</v>
       </c>
       <c r="N36" t="n">
-        <v>387.0356526387314</v>
+        <v>387.0356526387313</v>
       </c>
       <c r="O36" t="n">
-        <v>354.0620086121733</v>
+        <v>354.0620086121732</v>
       </c>
       <c r="P36" t="n">
-        <v>284.1659765693366</v>
+        <v>284.1659765693365</v>
       </c>
       <c r="Q36" t="n">
         <v>189.9574298790475</v>
       </c>
       <c r="R36" t="n">
-        <v>92.39408250988859</v>
+        <v>92.39408250988858</v>
       </c>
       <c r="S36" t="n">
-        <v>27.64120792804308</v>
+        <v>27.64120792804307</v>
       </c>
       <c r="T36" t="n">
-        <v>5.998174754633198</v>
+        <v>5.998174754633197</v>
       </c>
       <c r="U36" t="n">
-        <v>0.09790274354678787</v>
+        <v>0.09790274354678784</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33810,25 +33810,25 @@
         <v>11.09222034755017</v>
       </c>
       <c r="I37" t="n">
-        <v>37.51847127780772</v>
+        <v>37.51847127780771</v>
       </c>
       <c r="J37" t="n">
-        <v>88.20470106635747</v>
+        <v>88.20470106635746</v>
       </c>
       <c r="K37" t="n">
-        <v>144.9474192655328</v>
+        <v>144.9474192655327</v>
       </c>
       <c r="L37" t="n">
         <v>185.4827930100566</v>
       </c>
       <c r="M37" t="n">
-        <v>195.5655986225025</v>
+        <v>195.5655986225024</v>
       </c>
       <c r="N37" t="n">
         <v>190.915485797865</v>
       </c>
       <c r="O37" t="n">
-        <v>176.341351701135</v>
+        <v>176.3413517011349</v>
       </c>
       <c r="P37" t="n">
         <v>150.8904902901915</v>
@@ -33843,10 +33843,10 @@
         <v>21.74211288982991</v>
       </c>
       <c r="T37" t="n">
-        <v>5.330617140438216</v>
+        <v>5.330617140438215</v>
       </c>
       <c r="U37" t="n">
-        <v>0.06805043158006242</v>
+        <v>0.06805043158006241</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,46 +33883,46 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.78129067094392</v>
+        <v>2.781290670943919</v>
       </c>
       <c r="H38" t="n">
         <v>28.48389308380442</v>
       </c>
       <c r="I38" t="n">
-        <v>107.2257085915656</v>
+        <v>107.2257085915655</v>
       </c>
       <c r="J38" t="n">
         <v>236.0585690830267</v>
       </c>
       <c r="K38" t="n">
-        <v>353.7906031840829</v>
+        <v>353.7906031840828</v>
       </c>
       <c r="L38" t="n">
-        <v>438.908527554983</v>
+        <v>438.9085275549829</v>
       </c>
       <c r="M38" t="n">
-        <v>488.3703055243819</v>
+        <v>488.3703055243818</v>
       </c>
       <c r="N38" t="n">
-        <v>496.2726476432014</v>
+        <v>496.2726476432013</v>
       </c>
       <c r="O38" t="n">
         <v>468.6161885340027</v>
       </c>
       <c r="P38" t="n">
-        <v>399.9530750950747</v>
+        <v>399.9530750950746</v>
       </c>
       <c r="Q38" t="n">
         <v>300.3481029418954</v>
       </c>
       <c r="R38" t="n">
-        <v>174.7102501086812</v>
+        <v>174.7102501086811</v>
       </c>
       <c r="S38" t="n">
         <v>63.37866116413463</v>
       </c>
       <c r="T38" t="n">
-        <v>12.17509991205702</v>
+        <v>12.17509991205701</v>
       </c>
       <c r="U38" t="n">
         <v>0.2225032536755135</v>
@@ -33968,7 +33968,7 @@
         <v>14.37212275266845</v>
       </c>
       <c r="I39" t="n">
-        <v>51.23576912281897</v>
+        <v>51.23576912281896</v>
       </c>
       <c r="J39" t="n">
         <v>140.5948665827571</v>
@@ -33977,34 +33977,34 @@
         <v>240.2990206108058</v>
       </c>
       <c r="L39" t="n">
-        <v>323.1116879522488</v>
+        <v>323.1116879522487</v>
       </c>
       <c r="M39" t="n">
-        <v>377.0560996465288</v>
+        <v>377.0560996465287</v>
       </c>
       <c r="N39" t="n">
-        <v>387.0356526387314</v>
+        <v>387.0356526387313</v>
       </c>
       <c r="O39" t="n">
-        <v>354.0620086121733</v>
+        <v>354.0620086121732</v>
       </c>
       <c r="P39" t="n">
-        <v>284.1659765693366</v>
+        <v>284.1659765693365</v>
       </c>
       <c r="Q39" t="n">
         <v>189.9574298790475</v>
       </c>
       <c r="R39" t="n">
-        <v>92.39408250988859</v>
+        <v>92.39408250988858</v>
       </c>
       <c r="S39" t="n">
-        <v>27.64120792804308</v>
+        <v>27.64120792804307</v>
       </c>
       <c r="T39" t="n">
-        <v>5.998174754633198</v>
+        <v>5.998174754633197</v>
       </c>
       <c r="U39" t="n">
-        <v>0.09790274354678787</v>
+        <v>0.09790274354678784</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34047,25 +34047,25 @@
         <v>11.09222034755017</v>
       </c>
       <c r="I40" t="n">
-        <v>37.51847127780772</v>
+        <v>37.51847127780771</v>
       </c>
       <c r="J40" t="n">
-        <v>88.20470106635747</v>
+        <v>88.20470106635746</v>
       </c>
       <c r="K40" t="n">
-        <v>144.9474192655328</v>
+        <v>144.9474192655327</v>
       </c>
       <c r="L40" t="n">
         <v>185.4827930100566</v>
       </c>
       <c r="M40" t="n">
-        <v>195.5655986225025</v>
+        <v>195.5655986225024</v>
       </c>
       <c r="N40" t="n">
         <v>190.915485797865</v>
       </c>
       <c r="O40" t="n">
-        <v>176.341351701135</v>
+        <v>176.3413517011349</v>
       </c>
       <c r="P40" t="n">
         <v>150.8904902901915</v>
@@ -34080,10 +34080,10 @@
         <v>21.74211288982991</v>
       </c>
       <c r="T40" t="n">
-        <v>5.330617140438216</v>
+        <v>5.330617140438215</v>
       </c>
       <c r="U40" t="n">
-        <v>0.06805043158006242</v>
+        <v>0.06805043158006241</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,46 +34120,46 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.78129067094392</v>
+        <v>2.781290670943919</v>
       </c>
       <c r="H41" t="n">
         <v>28.48389308380442</v>
       </c>
       <c r="I41" t="n">
-        <v>107.2257085915656</v>
+        <v>107.2257085915655</v>
       </c>
       <c r="J41" t="n">
         <v>236.0585690830267</v>
       </c>
       <c r="K41" t="n">
-        <v>353.7906031840829</v>
+        <v>353.7906031840828</v>
       </c>
       <c r="L41" t="n">
-        <v>438.908527554983</v>
+        <v>438.9085275549829</v>
       </c>
       <c r="M41" t="n">
-        <v>488.3703055243819</v>
+        <v>488.3703055243818</v>
       </c>
       <c r="N41" t="n">
-        <v>496.2726476432014</v>
+        <v>496.2726476432013</v>
       </c>
       <c r="O41" t="n">
         <v>468.6161885340027</v>
       </c>
       <c r="P41" t="n">
-        <v>399.9530750950747</v>
+        <v>399.9530750950746</v>
       </c>
       <c r="Q41" t="n">
         <v>300.3481029418954</v>
       </c>
       <c r="R41" t="n">
-        <v>174.7102501086812</v>
+        <v>174.7102501086811</v>
       </c>
       <c r="S41" t="n">
         <v>63.37866116413463</v>
       </c>
       <c r="T41" t="n">
-        <v>12.17509991205702</v>
+        <v>12.17509991205701</v>
       </c>
       <c r="U41" t="n">
         <v>0.2225032536755135</v>
@@ -34205,7 +34205,7 @@
         <v>14.37212275266845</v>
       </c>
       <c r="I42" t="n">
-        <v>51.23576912281897</v>
+        <v>51.23576912281896</v>
       </c>
       <c r="J42" t="n">
         <v>140.5948665827571</v>
@@ -34214,34 +34214,34 @@
         <v>240.2990206108058</v>
       </c>
       <c r="L42" t="n">
-        <v>323.1116879522488</v>
+        <v>323.1116879522487</v>
       </c>
       <c r="M42" t="n">
-        <v>377.0560996465288</v>
+        <v>377.0560996465287</v>
       </c>
       <c r="N42" t="n">
-        <v>387.0356526387314</v>
+        <v>387.0356526387313</v>
       </c>
       <c r="O42" t="n">
-        <v>354.0620086121733</v>
+        <v>354.0620086121732</v>
       </c>
       <c r="P42" t="n">
-        <v>284.1659765693366</v>
+        <v>284.1659765693365</v>
       </c>
       <c r="Q42" t="n">
         <v>189.9574298790475</v>
       </c>
       <c r="R42" t="n">
-        <v>92.39408250988859</v>
+        <v>92.39408250988858</v>
       </c>
       <c r="S42" t="n">
-        <v>27.64120792804308</v>
+        <v>27.64120792804307</v>
       </c>
       <c r="T42" t="n">
-        <v>5.998174754633198</v>
+        <v>5.998174754633197</v>
       </c>
       <c r="U42" t="n">
-        <v>0.09790274354678787</v>
+        <v>0.09790274354678784</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34284,25 +34284,25 @@
         <v>11.09222034755017</v>
       </c>
       <c r="I43" t="n">
-        <v>37.51847127780772</v>
+        <v>37.51847127780771</v>
       </c>
       <c r="J43" t="n">
-        <v>88.20470106635747</v>
+        <v>88.20470106635746</v>
       </c>
       <c r="K43" t="n">
-        <v>144.9474192655328</v>
+        <v>144.9474192655327</v>
       </c>
       <c r="L43" t="n">
         <v>185.4827930100566</v>
       </c>
       <c r="M43" t="n">
-        <v>195.5655986225025</v>
+        <v>195.5655986225024</v>
       </c>
       <c r="N43" t="n">
         <v>190.915485797865</v>
       </c>
       <c r="O43" t="n">
-        <v>176.341351701135</v>
+        <v>176.3413517011349</v>
       </c>
       <c r="P43" t="n">
         <v>150.8904902901915</v>
@@ -34317,10 +34317,10 @@
         <v>21.74211288982991</v>
       </c>
       <c r="T43" t="n">
-        <v>5.330617140438216</v>
+        <v>5.330617140438215</v>
       </c>
       <c r="U43" t="n">
-        <v>0.06805043158006242</v>
+        <v>0.06805043158006241</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,46 +34357,46 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.78129067094392</v>
+        <v>2.781290670943919</v>
       </c>
       <c r="H44" t="n">
         <v>28.48389308380442</v>
       </c>
       <c r="I44" t="n">
-        <v>107.2257085915656</v>
+        <v>107.2257085915655</v>
       </c>
       <c r="J44" t="n">
         <v>236.0585690830267</v>
       </c>
       <c r="K44" t="n">
-        <v>353.7906031840829</v>
+        <v>353.7906031840828</v>
       </c>
       <c r="L44" t="n">
-        <v>438.908527554983</v>
+        <v>438.9085275549829</v>
       </c>
       <c r="M44" t="n">
-        <v>488.3703055243819</v>
+        <v>488.3703055243818</v>
       </c>
       <c r="N44" t="n">
-        <v>496.2726476432014</v>
+        <v>496.2726476432013</v>
       </c>
       <c r="O44" t="n">
         <v>468.6161885340027</v>
       </c>
       <c r="P44" t="n">
-        <v>399.9530750950747</v>
+        <v>399.9530750950746</v>
       </c>
       <c r="Q44" t="n">
         <v>300.3481029418954</v>
       </c>
       <c r="R44" t="n">
-        <v>174.7102501086812</v>
+        <v>174.7102501086811</v>
       </c>
       <c r="S44" t="n">
         <v>63.37866116413463</v>
       </c>
       <c r="T44" t="n">
-        <v>12.17509991205702</v>
+        <v>12.17509991205701</v>
       </c>
       <c r="U44" t="n">
         <v>0.2225032536755135</v>
@@ -34442,7 +34442,7 @@
         <v>14.37212275266845</v>
       </c>
       <c r="I45" t="n">
-        <v>51.23576912281897</v>
+        <v>51.23576912281896</v>
       </c>
       <c r="J45" t="n">
         <v>140.5948665827571</v>
@@ -34451,34 +34451,34 @@
         <v>240.2990206108058</v>
       </c>
       <c r="L45" t="n">
-        <v>323.1116879522488</v>
+        <v>323.1116879522487</v>
       </c>
       <c r="M45" t="n">
-        <v>377.0560996465288</v>
+        <v>377.0560996465287</v>
       </c>
       <c r="N45" t="n">
-        <v>387.0356526387314</v>
+        <v>387.0356526387313</v>
       </c>
       <c r="O45" t="n">
-        <v>354.0620086121733</v>
+        <v>354.0620086121732</v>
       </c>
       <c r="P45" t="n">
-        <v>284.1659765693366</v>
+        <v>284.1659765693365</v>
       </c>
       <c r="Q45" t="n">
         <v>189.9574298790475</v>
       </c>
       <c r="R45" t="n">
-        <v>92.39408250988859</v>
+        <v>92.39408250988858</v>
       </c>
       <c r="S45" t="n">
-        <v>27.64120792804308</v>
+        <v>27.64120792804307</v>
       </c>
       <c r="T45" t="n">
-        <v>5.998174754633198</v>
+        <v>5.998174754633197</v>
       </c>
       <c r="U45" t="n">
-        <v>0.09790274354678787</v>
+        <v>0.09790274354678784</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34521,25 +34521,25 @@
         <v>11.09222034755017</v>
       </c>
       <c r="I46" t="n">
-        <v>37.51847127780772</v>
+        <v>37.51847127780771</v>
       </c>
       <c r="J46" t="n">
-        <v>88.20470106635747</v>
+        <v>88.20470106635746</v>
       </c>
       <c r="K46" t="n">
-        <v>144.9474192655328</v>
+        <v>144.9474192655327</v>
       </c>
       <c r="L46" t="n">
         <v>185.4827930100566</v>
       </c>
       <c r="M46" t="n">
-        <v>195.5655986225025</v>
+        <v>195.5655986225024</v>
       </c>
       <c r="N46" t="n">
         <v>190.915485797865</v>
       </c>
       <c r="O46" t="n">
-        <v>176.341351701135</v>
+        <v>176.3413517011349</v>
       </c>
       <c r="P46" t="n">
         <v>150.8904902901915</v>
@@ -34554,10 +34554,10 @@
         <v>21.74211288982991</v>
       </c>
       <c r="T46" t="n">
-        <v>5.330617140438216</v>
+        <v>5.330617140438215</v>
       </c>
       <c r="U46" t="n">
-        <v>0.06805043158006242</v>
+        <v>0.06805043158006241</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>224.1092797284142</v>
+        <v>55.01266455634041</v>
       </c>
       <c r="K11" t="n">
-        <v>339.3624246806554</v>
+        <v>133.7007521391023</v>
       </c>
       <c r="L11" t="n">
         <v>203.1421125849957</v>
       </c>
       <c r="M11" t="n">
-        <v>258.0240722971092</v>
+        <v>503.497760388533</v>
       </c>
       <c r="N11" t="n">
-        <v>266.8595840466105</v>
+        <v>583.6180421611867</v>
       </c>
       <c r="O11" t="n">
-        <v>238.517977112316</v>
+        <v>238.5179771123159</v>
       </c>
       <c r="P11" t="n">
-        <v>490.5187875112878</v>
+        <v>490.5187875112877</v>
       </c>
       <c r="Q11" t="n">
-        <v>290.3574037273506</v>
+        <v>78.04241306744589</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>24.84113216753144</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>139.8482752564992</v>
       </c>
       <c r="K12" t="n">
-        <v>366.9228186490254</v>
+        <v>102.4575816364468</v>
       </c>
       <c r="L12" t="n">
-        <v>373.3314960117586</v>
+        <v>489.716711357659</v>
       </c>
       <c r="M12" t="n">
-        <v>234.9220657245104</v>
+        <v>583.6180421611867</v>
       </c>
       <c r="N12" t="n">
-        <v>255.6939405553981</v>
+        <v>583.6180421611867</v>
       </c>
       <c r="O12" t="n">
         <v>211.4657641677288</v>
       </c>
       <c r="P12" t="n">
-        <v>468.6543377949435</v>
+        <v>150.1915691550063</v>
       </c>
       <c r="Q12" t="n">
-        <v>260.0529435288751</v>
+        <v>49.97565579302599</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>74.27673217679164</v>
+        <v>74.27673217679161</v>
       </c>
       <c r="K13" t="n">
         <v>202.1091386667568</v>
@@ -35574,19 +35574,19 @@
         <v>292.5040294974797</v>
       </c>
       <c r="M13" t="n">
-        <v>314.5806868114505</v>
+        <v>314.5806868114499</v>
       </c>
       <c r="N13" t="n">
-        <v>314.4788694042006</v>
+        <v>314.4788694042016</v>
       </c>
       <c r="O13" t="n">
-        <v>280.3576908422816</v>
+        <v>280.3576908422815</v>
       </c>
       <c r="P13" t="n">
         <v>227.6002607821919</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.73792218940494</v>
+        <v>97.73792218940491</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>224.1092797284142</v>
+        <v>55.01266455634041</v>
       </c>
       <c r="K14" t="n">
-        <v>339.3624246806554</v>
+        <v>457.846164710267</v>
       </c>
       <c r="L14" t="n">
         <v>203.1421125849957</v>
       </c>
       <c r="M14" t="n">
-        <v>258.0240722971092</v>
+        <v>283.7958152720403</v>
       </c>
       <c r="N14" t="n">
-        <v>266.8595840466105</v>
+        <v>266.8595840466104</v>
       </c>
       <c r="O14" t="n">
-        <v>238.517977112316</v>
+        <v>238.5179771123159</v>
       </c>
       <c r="P14" t="n">
-        <v>490.5187875112878</v>
+        <v>490.5187875112877</v>
       </c>
       <c r="Q14" t="n">
         <v>290.3574037273506</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>24.84113216753144</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,19 +35729,19 @@
         <v>366.9228186490254</v>
       </c>
       <c r="L15" t="n">
-        <v>184.5573081723746</v>
+        <v>184.5573081723745</v>
       </c>
       <c r="M15" t="n">
-        <v>234.9220657245104</v>
+        <v>583.6180421611867</v>
       </c>
       <c r="N15" t="n">
-        <v>583.6180421611867</v>
+        <v>255.693940555398</v>
       </c>
       <c r="O15" t="n">
-        <v>211.4657641677288</v>
+        <v>370.0067442103741</v>
       </c>
       <c r="P15" t="n">
-        <v>329.5044240285391</v>
+        <v>150.1915691550063</v>
       </c>
       <c r="Q15" t="n">
         <v>260.0529435288751</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>74.27673217679165</v>
+        <v>74.27673217679167</v>
       </c>
       <c r="K16" t="n">
         <v>202.1091386667569</v>
@@ -35823,7 +35823,7 @@
         <v>227.600260782192</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.73792218940496</v>
+        <v>97.73792218940497</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>224.1092797284142</v>
+        <v>55.01266455634041</v>
       </c>
       <c r="K17" t="n">
-        <v>339.3624246806554</v>
+        <v>350.8328332962317</v>
       </c>
       <c r="L17" t="n">
         <v>203.1421125849957</v>
       </c>
       <c r="M17" t="n">
-        <v>258.0240722971092</v>
+        <v>258.0240722971091</v>
       </c>
       <c r="N17" t="n">
-        <v>266.8595840466105</v>
+        <v>266.8595840466104</v>
       </c>
       <c r="O17" t="n">
-        <v>238.517977112316</v>
+        <v>583.6180421611867</v>
       </c>
       <c r="P17" t="n">
-        <v>490.5187875112878</v>
+        <v>490.5187875112877</v>
       </c>
       <c r="Q17" t="n">
-        <v>290.3574037273506</v>
+        <v>78.04241306744589</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>24.84113216753144</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>139.8482752564992</v>
+        <v>13.75723991609041</v>
       </c>
       <c r="K18" t="n">
-        <v>197.5396970858817</v>
+        <v>366.9228186490254</v>
       </c>
       <c r="L18" t="n">
-        <v>184.5573081723746</v>
+        <v>555.3976534758337</v>
       </c>
       <c r="M18" t="n">
-        <v>583.6180421611867</v>
+        <v>234.9220657245104</v>
       </c>
       <c r="N18" t="n">
-        <v>583.6180421611867</v>
+        <v>255.693940555398</v>
       </c>
       <c r="O18" t="n">
-        <v>211.4657641677288</v>
+        <v>365.5679297799121</v>
       </c>
       <c r="P18" t="n">
-        <v>150.1915691550063</v>
+        <v>468.6543377949434</v>
       </c>
       <c r="Q18" t="n">
-        <v>260.0529435288751</v>
+        <v>49.97565579302599</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36045,10 +36045,10 @@
         <v>122.6779274396499</v>
       </c>
       <c r="L19" t="n">
-        <v>213.0728182703728</v>
+        <v>213.0728182703727</v>
       </c>
       <c r="M19" t="n">
-        <v>235.1494755843431</v>
+        <v>235.149475584343</v>
       </c>
       <c r="N19" t="n">
         <v>235.0476581770936</v>
@@ -36060,7 +36060,7 @@
         <v>148.169049555085</v>
       </c>
       <c r="Q19" t="n">
-        <v>18.306710962298</v>
+        <v>18.30671096229798</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>224.1092797284142</v>
+        <v>59.82975505356553</v>
       </c>
       <c r="K20" t="n">
-        <v>339.3624246806554</v>
+        <v>133.7007521391023</v>
       </c>
       <c r="L20" t="n">
         <v>203.1421125849957</v>
       </c>
       <c r="M20" t="n">
-        <v>258.0240722971092</v>
+        <v>258.0240722971091</v>
       </c>
       <c r="N20" t="n">
-        <v>266.8595840466105</v>
+        <v>266.8595840466104</v>
       </c>
       <c r="O20" t="n">
-        <v>238.517977112316</v>
+        <v>583.6180421611867</v>
       </c>
       <c r="P20" t="n">
-        <v>490.5187875112878</v>
+        <v>490.5187875112877</v>
       </c>
       <c r="Q20" t="n">
         <v>290.3574037273506</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>24.84113216753144</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>139.8482752564992</v>
+        <v>13.75723991609041</v>
       </c>
       <c r="K21" t="n">
         <v>366.9228186490254</v>
       </c>
       <c r="L21" t="n">
-        <v>184.5573081723746</v>
+        <v>499.422531352168</v>
       </c>
       <c r="M21" t="n">
         <v>234.9220657245104</v>
       </c>
       <c r="N21" t="n">
-        <v>583.6180421611867</v>
+        <v>255.693940555398</v>
       </c>
       <c r="O21" t="n">
         <v>211.4657641677288</v>
       </c>
       <c r="P21" t="n">
-        <v>329.5044240285391</v>
+        <v>468.6543377949434</v>
       </c>
       <c r="Q21" t="n">
         <v>260.0529435288751</v>
@@ -36282,10 +36282,10 @@
         <v>122.6779274396499</v>
       </c>
       <c r="L22" t="n">
-        <v>213.0728182703728</v>
+        <v>213.0728182703727</v>
       </c>
       <c r="M22" t="n">
-        <v>235.1494755843431</v>
+        <v>235.149475584343</v>
       </c>
       <c r="N22" t="n">
         <v>235.0476581770936</v>
@@ -36297,7 +36297,7 @@
         <v>148.169049555085</v>
       </c>
       <c r="Q22" t="n">
-        <v>18.306710962298</v>
+        <v>18.30671096229798</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>224.1092797284142</v>
+        <v>55.01266455634041</v>
       </c>
       <c r="K23" t="n">
-        <v>457.8461647102671</v>
+        <v>457.846164710267</v>
       </c>
       <c r="L23" t="n">
-        <v>203.1421125849957</v>
+        <v>268.8207844215149</v>
       </c>
       <c r="M23" t="n">
-        <v>258.0240722971092</v>
+        <v>258.0240722971091</v>
       </c>
       <c r="N23" t="n">
-        <v>266.8595840466105</v>
+        <v>266.8595840466104</v>
       </c>
       <c r="O23" t="n">
-        <v>278.7440922120712</v>
+        <v>619.3181583750613</v>
       </c>
       <c r="P23" t="n">
-        <v>490.5187875112878</v>
+        <v>490.5187875112877</v>
       </c>
       <c r="Q23" t="n">
-        <v>290.3574037273506</v>
+        <v>78.04241306744589</v>
       </c>
       <c r="R23" t="n">
-        <v>24.84113216753147</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36446,16 +36446,16 @@
         <v>234.9220657245104</v>
       </c>
       <c r="N24" t="n">
-        <v>255.6939405553981</v>
+        <v>255.693940555398</v>
       </c>
       <c r="O24" t="n">
-        <v>605.3280834444583</v>
+        <v>212.9505940005516</v>
       </c>
       <c r="P24" t="n">
-        <v>150.1915691550063</v>
+        <v>468.6543377949434</v>
       </c>
       <c r="Q24" t="n">
-        <v>186.1382227249059</v>
+        <v>260.0529435288751</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36519,10 +36519,10 @@
         <v>122.6779274396499</v>
       </c>
       <c r="L25" t="n">
-        <v>213.0728182703728</v>
+        <v>213.0728182703727</v>
       </c>
       <c r="M25" t="n">
-        <v>235.1494755843431</v>
+        <v>235.149475584343</v>
       </c>
       <c r="N25" t="n">
         <v>235.0476581770936</v>
@@ -36534,7 +36534,7 @@
         <v>148.169049555085</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.306710962298</v>
+        <v>18.30671096229798</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,28 +36592,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>55.01266455634044</v>
+        <v>224.1092797284142</v>
       </c>
       <c r="K26" t="n">
-        <v>457.8461647102671</v>
+        <v>457.846164710267</v>
       </c>
       <c r="L26" t="n">
         <v>620.8033271354461</v>
       </c>
       <c r="M26" t="n">
-        <v>707.5376057899417</v>
+        <v>707.5376057899416</v>
       </c>
       <c r="N26" t="n">
-        <v>704.2065084585946</v>
+        <v>704.2065084585945</v>
       </c>
       <c r="O26" t="n">
         <v>619.3181583750613</v>
       </c>
       <c r="P26" t="n">
-        <v>397.1047358764483</v>
+        <v>168.7200793398051</v>
       </c>
       <c r="Q26" t="n">
-        <v>78.04241306744595</v>
+        <v>137.330454432015</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36683,13 +36683,13 @@
         <v>234.9220657245104</v>
       </c>
       <c r="N27" t="n">
-        <v>255.6939405553981</v>
+        <v>255.693940555398</v>
       </c>
       <c r="O27" t="n">
-        <v>298.9054970143249</v>
+        <v>298.9054970143253</v>
       </c>
       <c r="P27" t="n">
-        <v>468.6543377949435</v>
+        <v>468.6543377949434</v>
       </c>
       <c r="Q27" t="n">
         <v>260.0529435288751</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>74.27673217679164</v>
+        <v>74.27673217679165</v>
       </c>
       <c r="K28" t="n">
         <v>202.1091386667568</v>
@@ -36771,7 +36771,7 @@
         <v>227.6002607821919</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.73792218940494</v>
+        <v>97.73792218940496</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>55.01266455634044</v>
+        <v>105.2426713568106</v>
       </c>
       <c r="K29" t="n">
-        <v>457.8461647102671</v>
+        <v>457.846164710267</v>
       </c>
       <c r="L29" t="n">
         <v>620.8033271354461</v>
       </c>
       <c r="M29" t="n">
-        <v>707.5376057899417</v>
+        <v>707.5376057899416</v>
       </c>
       <c r="N29" t="n">
-        <v>704.2065084585946</v>
+        <v>704.2065084585945</v>
       </c>
       <c r="O29" t="n">
-        <v>619.3181583750613</v>
+        <v>238.5179771123159</v>
       </c>
       <c r="P29" t="n">
-        <v>397.1047358764479</v>
+        <v>490.5187875112877</v>
       </c>
       <c r="Q29" t="n">
-        <v>78.04241306744595</v>
+        <v>290.3574037273506</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>24.84113216753144</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>139.8482752564992</v>
       </c>
       <c r="K30" t="n">
-        <v>102.4575816364468</v>
+        <v>366.9228186490254</v>
       </c>
       <c r="L30" t="n">
         <v>555.3976534758337</v>
@@ -36920,13 +36920,13 @@
         <v>234.9220657245104</v>
       </c>
       <c r="N30" t="n">
-        <v>255.6939405553981</v>
+        <v>343.1336734019948</v>
       </c>
       <c r="O30" t="n">
-        <v>563.3707340269037</v>
+        <v>211.4657641677288</v>
       </c>
       <c r="P30" t="n">
-        <v>468.6543377949435</v>
+        <v>468.6543377949434</v>
       </c>
       <c r="Q30" t="n">
         <v>260.0529435288751</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>74.27673217679164</v>
+        <v>74.2767321767916</v>
       </c>
       <c r="K31" t="n">
         <v>202.1091386667568</v>
@@ -36996,19 +36996,19 @@
         <v>292.5040294974797</v>
       </c>
       <c r="M31" t="n">
-        <v>314.58068681145</v>
+        <v>314.5806868114499</v>
       </c>
       <c r="N31" t="n">
-        <v>314.4788694042006</v>
+        <v>314.4788694042005</v>
       </c>
       <c r="O31" t="n">
-        <v>280.3576908422816</v>
+        <v>280.3576908422815</v>
       </c>
       <c r="P31" t="n">
         <v>227.6002607821919</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.73792218940494</v>
+        <v>97.7379221894049</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>55.01266455634044</v>
+        <v>224.1092797284142</v>
       </c>
       <c r="K32" t="n">
-        <v>457.8461647102671</v>
+        <v>457.846164710267</v>
       </c>
       <c r="L32" t="n">
         <v>620.8033271354461</v>
       </c>
       <c r="M32" t="n">
-        <v>707.5376057899417</v>
+        <v>258.0240722971091</v>
       </c>
       <c r="N32" t="n">
-        <v>704.2065084585946</v>
+        <v>654.0532523170776</v>
       </c>
       <c r="O32" t="n">
         <v>619.3181583750613</v>
       </c>
       <c r="P32" t="n">
-        <v>397.1047358764479</v>
+        <v>490.5187875112877</v>
       </c>
       <c r="Q32" t="n">
-        <v>78.04241306744595</v>
+        <v>290.3574037273506</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>24.84113216753144</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,16 +37154,16 @@
         <v>555.3976534758337</v>
       </c>
       <c r="M33" t="n">
-        <v>234.9220657245104</v>
+        <v>322.361798571107</v>
       </c>
       <c r="N33" t="n">
-        <v>255.6939405553981</v>
+        <v>255.693940555398</v>
       </c>
       <c r="O33" t="n">
-        <v>298.9054970143249</v>
+        <v>211.4657641677288</v>
       </c>
       <c r="P33" t="n">
-        <v>468.6543377949435</v>
+        <v>468.6543377949434</v>
       </c>
       <c r="Q33" t="n">
         <v>260.0529435288751</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>74.27673217679164</v>
+        <v>74.27673217679163</v>
       </c>
       <c r="K34" t="n">
         <v>202.1091386667568</v>
@@ -37245,7 +37245,7 @@
         <v>227.6002607821926</v>
       </c>
       <c r="Q34" t="n">
-        <v>97.73792218940494</v>
+        <v>97.73792218940493</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,28 +37303,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>55.01266455634044</v>
+        <v>224.1092797284142</v>
       </c>
       <c r="K35" t="n">
-        <v>160.1848485850118</v>
+        <v>457.846164710267</v>
       </c>
       <c r="L35" t="n">
-        <v>620.8033271354461</v>
+        <v>203.1421125849957</v>
       </c>
       <c r="M35" t="n">
-        <v>674.2621117002074</v>
+        <v>258.0240722971091</v>
       </c>
       <c r="N35" t="n">
-        <v>674.2621117002074</v>
+        <v>266.8595840466104</v>
       </c>
       <c r="O35" t="n">
-        <v>238.517977112316</v>
+        <v>478.948128590746</v>
       </c>
       <c r="P35" t="n">
-        <v>168.7200793398051</v>
+        <v>490.5187875112877</v>
       </c>
       <c r="Q35" t="n">
-        <v>78.04241306744595</v>
+        <v>290.3574037273506</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>139.8482752564992</v>
+        <v>13.75723991609041</v>
       </c>
       <c r="K36" t="n">
         <v>366.9228186490254</v>
@@ -37394,13 +37394,13 @@
         <v>234.9220657245104</v>
       </c>
       <c r="N36" t="n">
-        <v>255.6939405553981</v>
+        <v>255.693940555398</v>
       </c>
       <c r="O36" t="n">
-        <v>298.9054970143253</v>
+        <v>424.9965323547348</v>
       </c>
       <c r="P36" t="n">
-        <v>468.6543377949435</v>
+        <v>468.6543377949434</v>
       </c>
       <c r="Q36" t="n">
         <v>260.0529435288751</v>
@@ -37467,10 +37467,10 @@
         <v>122.6779274396499</v>
       </c>
       <c r="L37" t="n">
-        <v>213.0728182703728</v>
+        <v>213.0728182703727</v>
       </c>
       <c r="M37" t="n">
-        <v>235.1494755843431</v>
+        <v>235.149475584343</v>
       </c>
       <c r="N37" t="n">
         <v>235.0476581770936</v>
@@ -37482,7 +37482,7 @@
         <v>148.169049555085</v>
       </c>
       <c r="Q37" t="n">
-        <v>18.306710962298</v>
+        <v>18.30671096229798</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,22 +37540,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>55.01266455634044</v>
+        <v>55.01266455634041</v>
       </c>
       <c r="K38" t="n">
-        <v>457.8461647102671</v>
+        <v>457.846164710267</v>
       </c>
       <c r="L38" t="n">
         <v>620.8033271354461</v>
       </c>
       <c r="M38" t="n">
-        <v>258.0240722971092</v>
+        <v>571.6883325686456</v>
       </c>
       <c r="N38" t="n">
-        <v>266.8595840466105</v>
+        <v>266.8595840466104</v>
       </c>
       <c r="O38" t="n">
-        <v>552.1822373838526</v>
+        <v>238.5179771123159</v>
       </c>
       <c r="P38" t="n">
         <v>168.7200793398051</v>
@@ -37628,16 +37628,16 @@
         <v>555.3976534758337</v>
       </c>
       <c r="M39" t="n">
-        <v>322.361798571107</v>
+        <v>234.9220657245104</v>
       </c>
       <c r="N39" t="n">
-        <v>255.6939405553981</v>
+        <v>661.5964420419324</v>
       </c>
       <c r="O39" t="n">
         <v>211.4657641677288</v>
       </c>
       <c r="P39" t="n">
-        <v>468.6543377949435</v>
+        <v>150.1915691550063</v>
       </c>
       <c r="Q39" t="n">
         <v>260.0529435288751</v>
@@ -37704,10 +37704,10 @@
         <v>122.6779274396499</v>
       </c>
       <c r="L40" t="n">
-        <v>213.0728182703728</v>
+        <v>213.0728182703727</v>
       </c>
       <c r="M40" t="n">
-        <v>235.1494755843431</v>
+        <v>235.149475584343</v>
       </c>
       <c r="N40" t="n">
         <v>235.0476581770936</v>
@@ -37719,7 +37719,7 @@
         <v>148.169049555085</v>
       </c>
       <c r="Q40" t="n">
-        <v>18.306710962298</v>
+        <v>18.30671096229798</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>55.01266455634044</v>
+        <v>224.1092797284142</v>
       </c>
       <c r="K41" t="n">
-        <v>160.1848485850124</v>
+        <v>207.0311832763057</v>
       </c>
       <c r="L41" t="n">
-        <v>620.8033271354461</v>
+        <v>203.1421125849957</v>
       </c>
       <c r="M41" t="n">
-        <v>674.2621117002076</v>
+        <v>258.0240722971091</v>
       </c>
       <c r="N41" t="n">
-        <v>674.2621117002076</v>
+        <v>674.2621117002072</v>
       </c>
       <c r="O41" t="n">
-        <v>238.517977112316</v>
+        <v>619.3181583750613</v>
       </c>
       <c r="P41" t="n">
         <v>168.7200793398051</v>
       </c>
       <c r="Q41" t="n">
-        <v>78.04241306744595</v>
+        <v>290.3574037273506</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>24.84113216753144</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>13.75723991609041</v>
+        <v>139.8482752564992</v>
       </c>
       <c r="K42" t="n">
-        <v>102.4575816364468</v>
+        <v>366.9228186490254</v>
       </c>
       <c r="L42" t="n">
-        <v>555.3976534758337</v>
+        <v>184.5573081723745</v>
       </c>
       <c r="M42" t="n">
-        <v>674.2621117002076</v>
+        <v>674.2621117002072</v>
       </c>
       <c r="N42" t="n">
-        <v>674.2621117002076</v>
+        <v>255.693940555398</v>
       </c>
       <c r="O42" t="n">
-        <v>211.4657641677288</v>
+        <v>230.4057963420882</v>
       </c>
       <c r="P42" t="n">
-        <v>298.8194136098705</v>
+        <v>468.6543377949434</v>
       </c>
       <c r="Q42" t="n">
-        <v>49.97565579302602</v>
+        <v>260.0529435288751</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37941,10 +37941,10 @@
         <v>122.6779274396499</v>
       </c>
       <c r="L43" t="n">
-        <v>213.0728182703728</v>
+        <v>213.0728182703727</v>
       </c>
       <c r="M43" t="n">
-        <v>235.1494755843431</v>
+        <v>235.149475584343</v>
       </c>
       <c r="N43" t="n">
         <v>235.0476581770936</v>
@@ -37956,7 +37956,7 @@
         <v>148.169049555085</v>
       </c>
       <c r="Q43" t="n">
-        <v>18.306710962298</v>
+        <v>18.30671096229798</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,28 +38014,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>55.01266455634044</v>
+        <v>224.1092797284142</v>
       </c>
       <c r="K44" t="n">
-        <v>457.8461647102671</v>
+        <v>133.7007521391023</v>
       </c>
       <c r="L44" t="n">
-        <v>620.8033271354461</v>
+        <v>301.3136758897305</v>
       </c>
       <c r="M44" t="n">
-        <v>258.0240722971092</v>
+        <v>258.0240722971091</v>
       </c>
       <c r="N44" t="n">
-        <v>266.8595840466105</v>
+        <v>674.2621117002072</v>
       </c>
       <c r="O44" t="n">
         <v>619.3181583750613</v>
       </c>
       <c r="P44" t="n">
-        <v>313.8991490085008</v>
+        <v>168.7200793398051</v>
       </c>
       <c r="Q44" t="n">
-        <v>78.04241306744595</v>
+        <v>290.3574037273506</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>13.75723991609041</v>
+        <v>139.8482752564992</v>
       </c>
       <c r="K45" t="n">
         <v>366.9228186490254</v>
@@ -38105,13 +38105,13 @@
         <v>234.9220657245104</v>
       </c>
       <c r="N45" t="n">
-        <v>255.6939405553981</v>
+        <v>255.693940555398</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9965323547345</v>
+        <v>298.9054970143258</v>
       </c>
       <c r="P45" t="n">
-        <v>468.6543377949435</v>
+        <v>468.6543377949434</v>
       </c>
       <c r="Q45" t="n">
         <v>260.0529435288751</v>
@@ -38178,10 +38178,10 @@
         <v>122.6779274396499</v>
       </c>
       <c r="L46" t="n">
-        <v>213.0728182703728</v>
+        <v>213.0728182703727</v>
       </c>
       <c r="M46" t="n">
-        <v>235.1494755843431</v>
+        <v>235.149475584343</v>
       </c>
       <c r="N46" t="n">
         <v>235.0476581770936</v>
@@ -38193,7 +38193,7 @@
         <v>148.169049555085</v>
       </c>
       <c r="Q46" t="n">
-        <v>18.306710962298</v>
+        <v>18.30671096229798</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
